--- a/BackTest/2020-01-14 BackTest HYC.xlsx
+++ b/BackTest/2020-01-14 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:M257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="C2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D2" t="n">
         <v>1.95</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.96</v>
-      </c>
       <c r="E2" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="F2" t="n">
-        <v>21554.8782</v>
+        <v>491970.3795</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9563</v>
+        <v>1.956416666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="C3" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="D3" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="E3" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="F3" t="n">
-        <v>117017.7869</v>
+        <v>21554.8782</v>
       </c>
       <c r="G3" t="n">
-        <v>1.956016666666667</v>
+        <v>1.9563</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.938</v>
+        <v>1.94</v>
       </c>
       <c r="C4" t="n">
-        <v>1.938</v>
+        <v>1.94</v>
       </c>
       <c r="D4" t="n">
-        <v>1.938</v>
+        <v>1.94</v>
       </c>
       <c r="E4" t="n">
-        <v>1.938</v>
+        <v>1.94</v>
       </c>
       <c r="F4" t="n">
-        <v>23589.4082</v>
+        <v>117017.7869</v>
       </c>
       <c r="G4" t="n">
-        <v>1.956216666666667</v>
+        <v>1.956016666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.943</v>
+        <v>1.938</v>
       </c>
       <c r="C5" t="n">
-        <v>1.933</v>
+        <v>1.938</v>
       </c>
       <c r="D5" t="n">
-        <v>1.943</v>
+        <v>1.938</v>
       </c>
       <c r="E5" t="n">
-        <v>1.933</v>
+        <v>1.938</v>
       </c>
       <c r="F5" t="n">
-        <v>19747.3944</v>
+        <v>23589.4082</v>
       </c>
       <c r="G5" t="n">
-        <v>1.955983333333334</v>
+        <v>1.956216666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>1.943</v>
       </c>
       <c r="C6" t="n">
-        <v>1.938</v>
+        <v>1.933</v>
       </c>
       <c r="D6" t="n">
         <v>1.943</v>
       </c>
       <c r="E6" t="n">
-        <v>1.938</v>
+        <v>1.933</v>
       </c>
       <c r="F6" t="n">
         <v>19747.3944</v>
       </c>
       <c r="G6" t="n">
-        <v>1.955833333333334</v>
+        <v>1.955983333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.938</v>
+        <v>1.943</v>
       </c>
       <c r="C7" t="n">
         <v>1.938</v>
       </c>
       <c r="D7" t="n">
-        <v>1.938</v>
+        <v>1.943</v>
       </c>
       <c r="E7" t="n">
         <v>1.938</v>
       </c>
       <c r="F7" t="n">
-        <v>315540.4428</v>
+        <v>19747.3944</v>
       </c>
       <c r="G7" t="n">
-        <v>1.955850000000001</v>
+        <v>1.955833333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>1.938</v>
       </c>
       <c r="F8" t="n">
-        <v>18318.1683</v>
+        <v>315540.4428</v>
       </c>
       <c r="G8" t="n">
-        <v>1.955650000000001</v>
+        <v>1.955850000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>1.938</v>
       </c>
       <c r="C9" t="n">
-        <v>1.923</v>
+        <v>1.938</v>
       </c>
       <c r="D9" t="n">
         <v>1.938</v>
       </c>
       <c r="E9" t="n">
-        <v>1.923</v>
+        <v>1.938</v>
       </c>
       <c r="F9" t="n">
-        <v>268799.4451</v>
+        <v>18318.1683</v>
       </c>
       <c r="G9" t="n">
-        <v>1.955433333333334</v>
+        <v>1.955650000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.933</v>
+        <v>1.938</v>
       </c>
       <c r="C10" t="n">
-        <v>1.933</v>
+        <v>1.923</v>
       </c>
       <c r="D10" t="n">
-        <v>1.933</v>
+        <v>1.938</v>
       </c>
       <c r="E10" t="n">
-        <v>1.933</v>
+        <v>1.923</v>
       </c>
       <c r="F10" t="n">
-        <v>353640</v>
+        <v>268799.4451</v>
       </c>
       <c r="G10" t="n">
-        <v>1.95505</v>
+        <v>1.955433333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.93</v>
+        <v>1.933</v>
       </c>
       <c r="C11" t="n">
-        <v>1.939</v>
+        <v>1.933</v>
       </c>
       <c r="D11" t="n">
-        <v>1.939</v>
+        <v>1.933</v>
       </c>
       <c r="E11" t="n">
-        <v>1.93</v>
+        <v>1.933</v>
       </c>
       <c r="F11" t="n">
-        <v>58286.3914</v>
+        <v>353640</v>
       </c>
       <c r="G11" t="n">
-        <v>1.954766666666667</v>
+        <v>1.95505</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.939</v>
+        <v>1.93</v>
       </c>
       <c r="C12" t="n">
         <v>1.939</v>
@@ -792,13 +792,13 @@
         <v>1.939</v>
       </c>
       <c r="E12" t="n">
-        <v>1.939</v>
+        <v>1.93</v>
       </c>
       <c r="F12" t="n">
-        <v>97963.1902</v>
+        <v>58286.3914</v>
       </c>
       <c r="G12" t="n">
-        <v>1.95485</v>
+        <v>1.954766666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.924</v>
+        <v>1.939</v>
       </c>
       <c r="C13" t="n">
-        <v>1.924</v>
+        <v>1.939</v>
       </c>
       <c r="D13" t="n">
-        <v>1.924</v>
+        <v>1.939</v>
       </c>
       <c r="E13" t="n">
-        <v>1.924</v>
+        <v>1.939</v>
       </c>
       <c r="F13" t="n">
-        <v>26919.9999</v>
+        <v>97963.1902</v>
       </c>
       <c r="G13" t="n">
-        <v>1.954683333333334</v>
+        <v>1.95485</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>1.924</v>
       </c>
       <c r="D14" t="n">
-        <v>1.93</v>
+        <v>1.924</v>
       </c>
       <c r="E14" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="F14" t="n">
-        <v>109466.1793</v>
+        <v>26919.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>1.954533333333334</v>
+        <v>1.954683333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="C15" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="D15" t="n">
-        <v>1.925</v>
+        <v>1.93</v>
       </c>
       <c r="E15" t="n">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="F15" t="n">
-        <v>56865.6613</v>
+        <v>109466.1793</v>
       </c>
       <c r="G15" t="n">
-        <v>1.954466666666667</v>
+        <v>1.954533333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.93</v>
+        <v>1.925</v>
       </c>
       <c r="C16" t="n">
-        <v>1.949</v>
+        <v>1.925</v>
       </c>
       <c r="D16" t="n">
-        <v>1.949</v>
+        <v>1.925</v>
       </c>
       <c r="E16" t="n">
-        <v>1.93</v>
+        <v>1.925</v>
       </c>
       <c r="F16" t="n">
-        <v>644181.0426</v>
+        <v>56865.6613</v>
       </c>
       <c r="G16" t="n">
-        <v>1.9548</v>
+        <v>1.954466666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.939</v>
+        <v>1.93</v>
       </c>
       <c r="C17" t="n">
-        <v>1.939</v>
+        <v>1.949</v>
       </c>
       <c r="D17" t="n">
-        <v>1.939</v>
+        <v>1.949</v>
       </c>
       <c r="E17" t="n">
-        <v>1.939</v>
+        <v>1.93</v>
       </c>
       <c r="F17" t="n">
-        <v>99776.4693</v>
+        <v>644181.0426</v>
       </c>
       <c r="G17" t="n">
-        <v>1.955116666666667</v>
+        <v>1.9548</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>1.939</v>
       </c>
       <c r="F18" t="n">
-        <v>2000</v>
+        <v>99776.4693</v>
       </c>
       <c r="G18" t="n">
-        <v>1.955600000000001</v>
+        <v>1.955116666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.949</v>
+        <v>1.939</v>
       </c>
       <c r="C19" t="n">
-        <v>1.95</v>
+        <v>1.939</v>
       </c>
       <c r="D19" t="n">
-        <v>1.95</v>
+        <v>1.939</v>
       </c>
       <c r="E19" t="n">
-        <v>1.949</v>
+        <v>1.939</v>
       </c>
       <c r="F19" t="n">
-        <v>113832.061</v>
+        <v>2000</v>
       </c>
       <c r="G19" t="n">
-        <v>1.955933333333334</v>
+        <v>1.955600000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.939</v>
+        <v>1.949</v>
       </c>
       <c r="C20" t="n">
-        <v>1.939</v>
+        <v>1.95</v>
       </c>
       <c r="D20" t="n">
-        <v>1.939</v>
+        <v>1.95</v>
       </c>
       <c r="E20" t="n">
-        <v>1.939</v>
+        <v>1.949</v>
       </c>
       <c r="F20" t="n">
-        <v>19093.7281</v>
+        <v>113832.061</v>
       </c>
       <c r="G20" t="n">
-        <v>1.956400000000001</v>
+        <v>1.955933333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.949</v>
+        <v>1.939</v>
       </c>
       <c r="C21" t="n">
-        <v>1.935</v>
+        <v>1.939</v>
       </c>
       <c r="D21" t="n">
-        <v>1.949</v>
+        <v>1.939</v>
       </c>
       <c r="E21" t="n">
-        <v>1.935</v>
+        <v>1.939</v>
       </c>
       <c r="F21" t="n">
-        <v>55116.8782</v>
+        <v>19093.7281</v>
       </c>
       <c r="G21" t="n">
-        <v>1.956800000000001</v>
+        <v>1.956400000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.939</v>
+        <v>1.949</v>
       </c>
       <c r="C22" t="n">
-        <v>1.939</v>
+        <v>1.935</v>
       </c>
       <c r="D22" t="n">
-        <v>1.939</v>
+        <v>1.949</v>
       </c>
       <c r="E22" t="n">
-        <v>1.939</v>
+        <v>1.935</v>
       </c>
       <c r="F22" t="n">
-        <v>43411.3894</v>
+        <v>55116.8782</v>
       </c>
       <c r="G22" t="n">
-        <v>1.957266666666667</v>
+        <v>1.956800000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>1.939</v>
       </c>
       <c r="F23" t="n">
-        <v>429268.6106</v>
+        <v>43411.3894</v>
       </c>
       <c r="G23" t="n">
-        <v>1.957433333333334</v>
+        <v>1.957266666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>1.939</v>
       </c>
       <c r="C24" t="n">
-        <v>1.949</v>
+        <v>1.939</v>
       </c>
       <c r="D24" t="n">
-        <v>1.949</v>
+        <v>1.939</v>
       </c>
       <c r="E24" t="n">
         <v>1.939</v>
       </c>
       <c r="F24" t="n">
-        <v>276001.5959</v>
+        <v>429268.6106</v>
       </c>
       <c r="G24" t="n">
-        <v>1.957766666666667</v>
+        <v>1.957433333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>1.939</v>
       </c>
       <c r="C25" t="n">
-        <v>1.939</v>
+        <v>1.949</v>
       </c>
       <c r="D25" t="n">
-        <v>1.939</v>
+        <v>1.949</v>
       </c>
       <c r="E25" t="n">
         <v>1.939</v>
       </c>
       <c r="F25" t="n">
-        <v>1096.6652</v>
+        <v>276001.5959</v>
       </c>
       <c r="G25" t="n">
-        <v>1.957683333333334</v>
+        <v>1.957766666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.925</v>
+        <v>1.939</v>
       </c>
       <c r="C26" t="n">
-        <v>1.925</v>
+        <v>1.939</v>
       </c>
       <c r="D26" t="n">
-        <v>1.925</v>
+        <v>1.939</v>
       </c>
       <c r="E26" t="n">
-        <v>1.925</v>
+        <v>1.939</v>
       </c>
       <c r="F26" t="n">
-        <v>15578.8995</v>
+        <v>1096.6652</v>
       </c>
       <c r="G26" t="n">
-        <v>1.957366666666667</v>
+        <v>1.957683333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.924</v>
+        <v>1.925</v>
       </c>
       <c r="C27" t="n">
-        <v>1.924</v>
+        <v>1.925</v>
       </c>
       <c r="D27" t="n">
-        <v>1.924</v>
+        <v>1.925</v>
       </c>
       <c r="E27" t="n">
-        <v>1.924</v>
+        <v>1.925</v>
       </c>
       <c r="F27" t="n">
-        <v>76000</v>
+        <v>15578.8995</v>
       </c>
       <c r="G27" t="n">
-        <v>1.957033333333334</v>
+        <v>1.957366666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="C28" t="n">
-        <v>1.928</v>
+        <v>1.924</v>
       </c>
       <c r="D28" t="n">
-        <v>1.928</v>
+        <v>1.924</v>
       </c>
       <c r="E28" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="F28" t="n">
-        <v>15569.9999</v>
+        <v>76000</v>
       </c>
       <c r="G28" t="n">
-        <v>1.956733333333334</v>
+        <v>1.957033333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.924</v>
+        <v>1.925</v>
       </c>
       <c r="C29" t="n">
-        <v>1.924</v>
+        <v>1.928</v>
       </c>
       <c r="D29" t="n">
-        <v>1.924</v>
+        <v>1.928</v>
       </c>
       <c r="E29" t="n">
-        <v>1.924</v>
+        <v>1.925</v>
       </c>
       <c r="F29" t="n">
-        <v>327758.4301</v>
+        <v>15569.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>1.956116666666667</v>
+        <v>1.956733333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.928</v>
+        <v>1.924</v>
       </c>
       <c r="C30" t="n">
-        <v>1.928</v>
+        <v>1.924</v>
       </c>
       <c r="D30" t="n">
-        <v>1.928</v>
+        <v>1.924</v>
       </c>
       <c r="E30" t="n">
-        <v>1.928</v>
+        <v>1.924</v>
       </c>
       <c r="F30" t="n">
-        <v>258</v>
+        <v>327758.4301</v>
       </c>
       <c r="G30" t="n">
-        <v>1.955566666666667</v>
+        <v>1.956116666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.937</v>
+        <v>1.928</v>
       </c>
       <c r="C31" t="n">
-        <v>1.94</v>
+        <v>1.928</v>
       </c>
       <c r="D31" t="n">
-        <v>1.94</v>
+        <v>1.928</v>
       </c>
       <c r="E31" t="n">
-        <v>1.937</v>
+        <v>1.928</v>
       </c>
       <c r="F31" t="n">
-        <v>569618.5243</v>
+        <v>258</v>
       </c>
       <c r="G31" t="n">
-        <v>1.955233333333334</v>
+        <v>1.955566666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.94</v>
+        <v>1.937</v>
       </c>
       <c r="C32" t="n">
         <v>1.94</v>
@@ -1492,13 +1492,13 @@
         <v>1.94</v>
       </c>
       <c r="E32" t="n">
-        <v>1.94</v>
+        <v>1.937</v>
       </c>
       <c r="F32" t="n">
-        <v>50000</v>
+        <v>569618.5243</v>
       </c>
       <c r="G32" t="n">
-        <v>1.954316666666667</v>
+        <v>1.955233333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>1.94</v>
       </c>
       <c r="F33" t="n">
-        <v>52536.5493</v>
+        <v>50000</v>
       </c>
       <c r="G33" t="n">
-        <v>1.953383333333334</v>
+        <v>1.954316666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.933</v>
+        <v>1.94</v>
       </c>
       <c r="C34" t="n">
-        <v>1.933</v>
+        <v>1.94</v>
       </c>
       <c r="D34" t="n">
-        <v>1.933</v>
+        <v>1.94</v>
       </c>
       <c r="E34" t="n">
-        <v>1.933</v>
+        <v>1.94</v>
       </c>
       <c r="F34" t="n">
-        <v>619390</v>
+        <v>52536.5493</v>
       </c>
       <c r="G34" t="n">
-        <v>1.952600000000001</v>
+        <v>1.953383333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.939</v>
+        <v>1.933</v>
       </c>
       <c r="C35" t="n">
-        <v>1.939</v>
+        <v>1.933</v>
       </c>
       <c r="D35" t="n">
-        <v>1.939</v>
+        <v>1.933</v>
       </c>
       <c r="E35" t="n">
-        <v>1.939</v>
+        <v>1.933</v>
       </c>
       <c r="F35" t="n">
-        <v>309690</v>
+        <v>619390</v>
       </c>
       <c r="G35" t="n">
-        <v>1.951900000000001</v>
+        <v>1.952600000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.934</v>
+        <v>1.939</v>
       </c>
       <c r="C36" t="n">
-        <v>1.934</v>
+        <v>1.939</v>
       </c>
       <c r="D36" t="n">
-        <v>1.934</v>
+        <v>1.939</v>
       </c>
       <c r="E36" t="n">
-        <v>1.934</v>
+        <v>1.939</v>
       </c>
       <c r="F36" t="n">
-        <v>388568.4489</v>
+        <v>309690</v>
       </c>
       <c r="G36" t="n">
-        <v>1.9513</v>
+        <v>1.951900000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>1.934</v>
       </c>
       <c r="C37" t="n">
-        <v>1.923</v>
+        <v>1.934</v>
       </c>
       <c r="D37" t="n">
         <v>1.934</v>
       </c>
       <c r="E37" t="n">
-        <v>1.923</v>
+        <v>1.934</v>
       </c>
       <c r="F37" t="n">
-        <v>707057.9971</v>
+        <v>388568.4489</v>
       </c>
       <c r="G37" t="n">
-        <v>1.950333333333334</v>
+        <v>1.9513</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.924</v>
+        <v>1.934</v>
       </c>
       <c r="C38" t="n">
-        <v>1.924</v>
+        <v>1.923</v>
       </c>
       <c r="D38" t="n">
-        <v>1.924</v>
+        <v>1.934</v>
       </c>
       <c r="E38" t="n">
-        <v>1.924</v>
+        <v>1.923</v>
       </c>
       <c r="F38" t="n">
-        <v>12949.7161</v>
+        <v>707057.9971</v>
       </c>
       <c r="G38" t="n">
-        <v>1.949650000000001</v>
+        <v>1.950333333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="C39" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="D39" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="E39" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="F39" t="n">
-        <v>2178.7732</v>
+        <v>12949.7161</v>
       </c>
       <c r="G39" t="n">
-        <v>1.948983333333334</v>
+        <v>1.949650000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>1.925</v>
       </c>
       <c r="F40" t="n">
-        <v>70000</v>
+        <v>2178.7732</v>
       </c>
       <c r="G40" t="n">
-        <v>1.948150000000001</v>
+        <v>1.948983333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.94</v>
+        <v>1.925</v>
       </c>
       <c r="C41" t="n">
-        <v>1.94</v>
+        <v>1.925</v>
       </c>
       <c r="D41" t="n">
-        <v>1.94</v>
+        <v>1.925</v>
       </c>
       <c r="E41" t="n">
-        <v>1.94</v>
+        <v>1.925</v>
       </c>
       <c r="F41" t="n">
-        <v>1320</v>
+        <v>70000</v>
       </c>
       <c r="G41" t="n">
-        <v>1.947566666666667</v>
+        <v>1.948150000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.929</v>
+        <v>1.94</v>
       </c>
       <c r="C42" t="n">
-        <v>1.929</v>
+        <v>1.94</v>
       </c>
       <c r="D42" t="n">
-        <v>1.929</v>
+        <v>1.94</v>
       </c>
       <c r="E42" t="n">
-        <v>1.929</v>
+        <v>1.94</v>
       </c>
       <c r="F42" t="n">
-        <v>38589.5694</v>
+        <v>1320</v>
       </c>
       <c r="G42" t="n">
-        <v>1.946800000000001</v>
+        <v>1.947566666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.925</v>
+        <v>1.929</v>
       </c>
       <c r="C43" t="n">
-        <v>1.923</v>
+        <v>1.929</v>
       </c>
       <c r="D43" t="n">
-        <v>1.925</v>
+        <v>1.929</v>
       </c>
       <c r="E43" t="n">
-        <v>1.923</v>
+        <v>1.929</v>
       </c>
       <c r="F43" t="n">
-        <v>131999.872</v>
+        <v>38589.5694</v>
       </c>
       <c r="G43" t="n">
-        <v>1.946000000000001</v>
+        <v>1.946800000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.931</v>
+        <v>1.925</v>
       </c>
       <c r="C44" t="n">
-        <v>1.922</v>
+        <v>1.923</v>
       </c>
       <c r="D44" t="n">
-        <v>1.931</v>
+        <v>1.925</v>
       </c>
       <c r="E44" t="n">
-        <v>1.922</v>
+        <v>1.923</v>
       </c>
       <c r="F44" t="n">
-        <v>282173.0265</v>
+        <v>131999.872</v>
       </c>
       <c r="G44" t="n">
-        <v>1.945016666666668</v>
+        <v>1.946000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.924</v>
+        <v>1.931</v>
       </c>
       <c r="C45" t="n">
-        <v>1.924</v>
+        <v>1.922</v>
       </c>
       <c r="D45" t="n">
-        <v>1.924</v>
+        <v>1.931</v>
       </c>
       <c r="E45" t="n">
-        <v>1.924</v>
+        <v>1.922</v>
       </c>
       <c r="F45" t="n">
-        <v>18690</v>
+        <v>282173.0265</v>
       </c>
       <c r="G45" t="n">
-        <v>1.944000000000001</v>
+        <v>1.945016666666668</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>1.924</v>
       </c>
       <c r="C46" t="n">
-        <v>1.922</v>
+        <v>1.924</v>
       </c>
       <c r="D46" t="n">
         <v>1.924</v>
       </c>
       <c r="E46" t="n">
-        <v>1.922</v>
+        <v>1.924</v>
       </c>
       <c r="F46" t="n">
-        <v>213426.8045</v>
+        <v>18690</v>
       </c>
       <c r="G46" t="n">
-        <v>1.943200000000001</v>
+        <v>1.944000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.914</v>
+        <v>1.924</v>
       </c>
       <c r="C47" t="n">
-        <v>1.913</v>
+        <v>1.922</v>
       </c>
       <c r="D47" t="n">
-        <v>1.914</v>
+        <v>1.924</v>
       </c>
       <c r="E47" t="n">
-        <v>1.913</v>
+        <v>1.922</v>
       </c>
       <c r="F47" t="n">
-        <v>20086.7794</v>
+        <v>213426.8045</v>
       </c>
       <c r="G47" t="n">
-        <v>1.942250000000001</v>
+        <v>1.943200000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="C48" t="n">
         <v>1.913</v>
       </c>
-      <c r="C48" t="n">
-        <v>1.925</v>
-      </c>
       <c r="D48" t="n">
-        <v>1.925</v>
+        <v>1.914</v>
       </c>
       <c r="E48" t="n">
         <v>1.913</v>
       </c>
       <c r="F48" t="n">
-        <v>42041.6387</v>
+        <v>20086.7794</v>
       </c>
       <c r="G48" t="n">
-        <v>1.941333333333334</v>
+        <v>1.942250000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.924</v>
+        <v>1.913</v>
       </c>
       <c r="C49" t="n">
-        <v>1.92</v>
+        <v>1.925</v>
       </c>
       <c r="D49" t="n">
-        <v>1.924</v>
+        <v>1.925</v>
       </c>
       <c r="E49" t="n">
-        <v>1.92</v>
+        <v>1.913</v>
       </c>
       <c r="F49" t="n">
-        <v>149008.6269</v>
+        <v>42041.6387</v>
       </c>
       <c r="G49" t="n">
-        <v>1.940333333333334</v>
+        <v>1.941333333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="C50" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D50" t="n">
         <v>1.924</v>
       </c>
-      <c r="D50" t="n">
-        <v>1.925</v>
-      </c>
       <c r="E50" t="n">
-        <v>1.924</v>
+        <v>1.92</v>
       </c>
       <c r="F50" t="n">
-        <v>430884.342</v>
+        <v>149008.6269</v>
       </c>
       <c r="G50" t="n">
-        <v>1.939316666666667</v>
+        <v>1.940333333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.924</v>
+        <v>1.925</v>
       </c>
       <c r="C51" t="n">
         <v>1.924</v>
       </c>
       <c r="D51" t="n">
-        <v>1.924</v>
+        <v>1.925</v>
       </c>
       <c r="E51" t="n">
         <v>1.924</v>
       </c>
       <c r="F51" t="n">
-        <v>249344.8532</v>
+        <v>430884.342</v>
       </c>
       <c r="G51" t="n">
-        <v>1.938300000000001</v>
+        <v>1.939316666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2189,16 +2189,16 @@
         <v>1.924</v>
       </c>
       <c r="D52" t="n">
-        <v>1.935</v>
+        <v>1.924</v>
       </c>
       <c r="E52" t="n">
         <v>1.924</v>
       </c>
       <c r="F52" t="n">
-        <v>478648.0665</v>
+        <v>249344.8532</v>
       </c>
       <c r="G52" t="n">
-        <v>1.937466666666668</v>
+        <v>1.938300000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.923</v>
+        <v>1.924</v>
       </c>
       <c r="C53" t="n">
         <v>1.924</v>
       </c>
       <c r="D53" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="E53" t="n">
         <v>1.924</v>
       </c>
-      <c r="E53" t="n">
-        <v>1.923</v>
-      </c>
       <c r="F53" t="n">
-        <v>26420.4931</v>
+        <v>478648.0665</v>
       </c>
       <c r="G53" t="n">
-        <v>1.936633333333334</v>
+        <v>1.937466666666668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.924</v>
+        <v>1.923</v>
       </c>
       <c r="C54" t="n">
         <v>1.924</v>
@@ -2262,13 +2262,13 @@
         <v>1.924</v>
       </c>
       <c r="E54" t="n">
-        <v>1.924</v>
+        <v>1.923</v>
       </c>
       <c r="F54" t="n">
-        <v>99921.18180000001</v>
+        <v>26420.4931</v>
       </c>
       <c r="G54" t="n">
-        <v>1.935816666666668</v>
+        <v>1.936633333333334</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="C55" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="D55" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="E55" t="n">
-        <v>1.925</v>
+        <v>1.924</v>
       </c>
       <c r="F55" t="n">
-        <v>106019.8425</v>
+        <v>99921.18180000001</v>
       </c>
       <c r="G55" t="n">
-        <v>1.934950000000001</v>
+        <v>1.935816666666668</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>1.925</v>
       </c>
       <c r="C56" t="n">
-        <v>1.935</v>
+        <v>1.925</v>
       </c>
       <c r="D56" t="n">
-        <v>1.935</v>
+        <v>1.925</v>
       </c>
       <c r="E56" t="n">
         <v>1.925</v>
       </c>
       <c r="F56" t="n">
-        <v>208353.7827</v>
+        <v>106019.8425</v>
       </c>
       <c r="G56" t="n">
-        <v>1.934316666666668</v>
+        <v>1.934950000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.937</v>
+        <v>1.925</v>
       </c>
       <c r="C57" t="n">
-        <v>1.94</v>
+        <v>1.935</v>
       </c>
       <c r="D57" t="n">
-        <v>1.94</v>
+        <v>1.935</v>
       </c>
       <c r="E57" t="n">
-        <v>1.937</v>
+        <v>1.925</v>
       </c>
       <c r="F57" t="n">
-        <v>142710</v>
+        <v>208353.7827</v>
       </c>
       <c r="G57" t="n">
-        <v>1.933816666666668</v>
+        <v>1.934316666666668</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>1.937</v>
+      </c>
+      <c r="C58" t="n">
         <v>1.94</v>
       </c>
-      <c r="C58" t="n">
-        <v>1.946</v>
-      </c>
       <c r="D58" t="n">
-        <v>1.946</v>
+        <v>1.94</v>
       </c>
       <c r="E58" t="n">
-        <v>1.94</v>
+        <v>1.937</v>
       </c>
       <c r="F58" t="n">
-        <v>21846.7061</v>
+        <v>142710</v>
       </c>
       <c r="G58" t="n">
-        <v>1.933366666666668</v>
+        <v>1.933816666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.923</v>
+        <v>1.94</v>
       </c>
       <c r="C59" t="n">
-        <v>1.923</v>
+        <v>1.946</v>
       </c>
       <c r="D59" t="n">
-        <v>1.923</v>
+        <v>1.946</v>
       </c>
       <c r="E59" t="n">
-        <v>1.923</v>
+        <v>1.94</v>
       </c>
       <c r="F59" t="n">
-        <v>450</v>
+        <v>21846.7061</v>
       </c>
       <c r="G59" t="n">
-        <v>1.932533333333335</v>
+        <v>1.933366666666668</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.943</v>
+        <v>1.923</v>
       </c>
       <c r="C60" t="n">
-        <v>1.946</v>
+        <v>1.923</v>
       </c>
       <c r="D60" t="n">
-        <v>1.946</v>
+        <v>1.923</v>
       </c>
       <c r="E60" t="n">
-        <v>1.943</v>
+        <v>1.923</v>
       </c>
       <c r="F60" t="n">
-        <v>137919.9418</v>
+        <v>450</v>
       </c>
       <c r="G60" t="n">
-        <v>1.932400000000001</v>
+        <v>1.932533333333335</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.946</v>
+        <v>1.943</v>
       </c>
       <c r="C61" t="n">
         <v>1.946</v>
@@ -2507,13 +2507,13 @@
         <v>1.946</v>
       </c>
       <c r="E61" t="n">
-        <v>1.946</v>
+        <v>1.943</v>
       </c>
       <c r="F61" t="n">
-        <v>14840.0206</v>
+        <v>137919.9418</v>
       </c>
       <c r="G61" t="n">
-        <v>1.932500000000001</v>
+        <v>1.932400000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>1.946</v>
       </c>
       <c r="F62" t="n">
-        <v>86610.84329999999</v>
+        <v>14840.0206</v>
       </c>
       <c r="G62" t="n">
-        <v>1.932433333333335</v>
+        <v>1.932500000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>1.946</v>
       </c>
       <c r="F63" t="n">
-        <v>466615.8609</v>
+        <v>86610.84329999999</v>
       </c>
       <c r="G63" t="n">
-        <v>1.932533333333335</v>
+        <v>1.932433333333335</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>1.946</v>
       </c>
       <c r="F64" t="n">
-        <v>1764.73</v>
+        <v>466615.8609</v>
       </c>
       <c r="G64" t="n">
-        <v>1.932666666666668</v>
+        <v>1.932533333333335</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.93</v>
+        <v>1.946</v>
       </c>
       <c r="C65" t="n">
-        <v>1.93</v>
+        <v>1.946</v>
       </c>
       <c r="D65" t="n">
-        <v>1.93</v>
+        <v>1.946</v>
       </c>
       <c r="E65" t="n">
-        <v>1.93</v>
+        <v>1.946</v>
       </c>
       <c r="F65" t="n">
-        <v>1690.3569</v>
+        <v>1764.73</v>
       </c>
       <c r="G65" t="n">
-        <v>1.932616666666668</v>
+        <v>1.932666666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="C66" t="n">
-        <v>1.947</v>
+        <v>1.93</v>
       </c>
       <c r="D66" t="n">
-        <v>1.947</v>
+        <v>1.93</v>
       </c>
       <c r="E66" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="F66" t="n">
-        <v>112429.8749</v>
+        <v>1690.3569</v>
       </c>
       <c r="G66" t="n">
-        <v>1.932766666666668</v>
+        <v>1.932616666666668</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.947</v>
+        <v>1.94</v>
       </c>
       <c r="C67" t="n">
         <v>1.947</v>
@@ -2717,13 +2717,13 @@
         <v>1.947</v>
       </c>
       <c r="E67" t="n">
-        <v>1.947</v>
+        <v>1.94</v>
       </c>
       <c r="F67" t="n">
-        <v>79839.72070000001</v>
+        <v>112429.8749</v>
       </c>
       <c r="G67" t="n">
-        <v>1.932916666666668</v>
+        <v>1.932766666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>1.947</v>
       </c>
       <c r="F68" t="n">
-        <v>31935</v>
+        <v>79839.72070000001</v>
       </c>
       <c r="G68" t="n">
-        <v>1.933066666666668</v>
+        <v>1.932916666666668</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>1.947</v>
       </c>
       <c r="F69" t="n">
-        <v>126591.7115</v>
+        <v>31935</v>
       </c>
       <c r="G69" t="n">
-        <v>1.933466666666668</v>
+        <v>1.933066666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.949</v>
+        <v>1.947</v>
       </c>
       <c r="C70" t="n">
-        <v>1.953</v>
+        <v>1.947</v>
       </c>
       <c r="D70" t="n">
-        <v>1.953</v>
+        <v>1.947</v>
       </c>
       <c r="E70" t="n">
-        <v>1.949</v>
+        <v>1.947</v>
       </c>
       <c r="F70" t="n">
-        <v>533331.3998</v>
+        <v>126591.7115</v>
       </c>
       <c r="G70" t="n">
-        <v>1.933800000000001</v>
+        <v>1.933466666666668</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>1.949</v>
+      </c>
+      <c r="C71" t="n">
         <v>1.953</v>
       </c>
-      <c r="C71" t="n">
-        <v>1.959</v>
-      </c>
       <c r="D71" t="n">
-        <v>1.959</v>
+        <v>1.953</v>
       </c>
       <c r="E71" t="n">
-        <v>1.953</v>
+        <v>1.949</v>
       </c>
       <c r="F71" t="n">
-        <v>45800</v>
+        <v>533331.3998</v>
       </c>
       <c r="G71" t="n">
-        <v>1.934133333333334</v>
+        <v>1.933800000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.959</v>
+        <v>1.953</v>
       </c>
       <c r="C72" t="n">
         <v>1.959</v>
@@ -2892,13 +2892,13 @@
         <v>1.959</v>
       </c>
       <c r="E72" t="n">
-        <v>1.959</v>
+        <v>1.953</v>
       </c>
       <c r="F72" t="n">
-        <v>385363.2786</v>
+        <v>45800</v>
       </c>
       <c r="G72" t="n">
-        <v>1.934466666666668</v>
+        <v>1.934133333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>1.959</v>
       </c>
       <c r="C73" t="n">
-        <v>1.96</v>
+        <v>1.959</v>
       </c>
       <c r="D73" t="n">
-        <v>1.96</v>
+        <v>1.959</v>
       </c>
       <c r="E73" t="n">
         <v>1.959</v>
       </c>
       <c r="F73" t="n">
-        <v>422256.9574</v>
+        <v>385363.2786</v>
       </c>
       <c r="G73" t="n">
-        <v>1.935066666666668</v>
+        <v>1.934466666666668</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.961</v>
+        <v>1.959</v>
       </c>
       <c r="C74" t="n">
-        <v>1.961</v>
+        <v>1.96</v>
       </c>
       <c r="D74" t="n">
-        <v>1.961</v>
+        <v>1.96</v>
       </c>
       <c r="E74" t="n">
-        <v>1.961</v>
+        <v>1.959</v>
       </c>
       <c r="F74" t="n">
-        <v>15016</v>
+        <v>422256.9574</v>
       </c>
       <c r="G74" t="n">
-        <v>1.935683333333334</v>
+        <v>1.935066666666668</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>1.961</v>
       </c>
       <c r="C75" t="n">
-        <v>1.966</v>
+        <v>1.961</v>
       </c>
       <c r="D75" t="n">
-        <v>1.966</v>
+        <v>1.961</v>
       </c>
       <c r="E75" t="n">
         <v>1.961</v>
       </c>
       <c r="F75" t="n">
-        <v>1924.8844</v>
+        <v>15016</v>
       </c>
       <c r="G75" t="n">
-        <v>1.936366666666667</v>
+        <v>1.935683333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.969</v>
+        <v>1.961</v>
       </c>
       <c r="C76" t="n">
-        <v>1.969</v>
+        <v>1.966</v>
       </c>
       <c r="D76" t="n">
-        <v>1.969</v>
+        <v>1.966</v>
       </c>
       <c r="E76" t="n">
-        <v>1.969</v>
+        <v>1.961</v>
       </c>
       <c r="F76" t="n">
-        <v>9705.0872</v>
+        <v>1924.8844</v>
       </c>
       <c r="G76" t="n">
-        <v>1.936700000000001</v>
+        <v>1.936366666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>1.969</v>
       </c>
       <c r="F77" t="n">
-        <v>2000</v>
+        <v>9705.0872</v>
       </c>
       <c r="G77" t="n">
-        <v>1.9372</v>
+        <v>1.936700000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3096,19 @@
         <v>1.969</v>
       </c>
       <c r="C78" t="n">
-        <v>1.978</v>
+        <v>1.969</v>
       </c>
       <c r="D78" t="n">
-        <v>1.978</v>
+        <v>1.969</v>
       </c>
       <c r="E78" t="n">
         <v>1.969</v>
       </c>
       <c r="F78" t="n">
-        <v>325975.0119</v>
+        <v>2000</v>
       </c>
       <c r="G78" t="n">
-        <v>1.93785</v>
+        <v>1.9372</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.978</v>
+        <v>1.969</v>
       </c>
       <c r="C79" t="n">
         <v>1.978</v>
@@ -3137,13 +3137,13 @@
         <v>1.978</v>
       </c>
       <c r="E79" t="n">
-        <v>1.978</v>
+        <v>1.969</v>
       </c>
       <c r="F79" t="n">
-        <v>18501.5451</v>
+        <v>325975.0119</v>
       </c>
       <c r="G79" t="n">
-        <v>1.938316666666667</v>
+        <v>1.93785</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.979</v>
+        <v>1.978</v>
       </c>
       <c r="C80" t="n">
-        <v>1.989</v>
+        <v>1.978</v>
       </c>
       <c r="D80" t="n">
-        <v>1.989</v>
+        <v>1.978</v>
       </c>
       <c r="E80" t="n">
-        <v>1.979</v>
+        <v>1.978</v>
       </c>
       <c r="F80" t="n">
-        <v>3502646.887407557</v>
+        <v>18501.5451</v>
       </c>
       <c r="G80" t="n">
-        <v>1.93915</v>
+        <v>1.938316666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.995</v>
+        <v>1.979</v>
       </c>
       <c r="C81" t="n">
-        <v>2.009</v>
+        <v>1.989</v>
       </c>
       <c r="D81" t="n">
-        <v>2.009</v>
+        <v>1.989</v>
       </c>
       <c r="E81" t="n">
-        <v>1.995</v>
+        <v>1.979</v>
       </c>
       <c r="F81" t="n">
-        <v>213168.0027</v>
+        <v>3502646.887407557</v>
       </c>
       <c r="G81" t="n">
-        <v>1.940383333333334</v>
+        <v>1.93915</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.01</v>
+        <v>1.995</v>
       </c>
       <c r="C82" t="n">
-        <v>2.038</v>
+        <v>2.009</v>
       </c>
       <c r="D82" t="n">
-        <v>2.038</v>
+        <v>2.009</v>
       </c>
       <c r="E82" t="n">
-        <v>2.01</v>
+        <v>1.995</v>
       </c>
       <c r="F82" t="n">
-        <v>4549144.87</v>
+        <v>213168.0027</v>
       </c>
       <c r="G82" t="n">
-        <v>1.942033333333334</v>
+        <v>1.940383333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C83" t="n">
         <v>2.038</v>
       </c>
-      <c r="C83" t="n">
-        <v>2.06</v>
-      </c>
       <c r="D83" t="n">
-        <v>2.069</v>
+        <v>2.038</v>
       </c>
       <c r="E83" t="n">
-        <v>2.038</v>
+        <v>2.01</v>
       </c>
       <c r="F83" t="n">
-        <v>2124456.5272</v>
+        <v>4549144.87</v>
       </c>
       <c r="G83" t="n">
-        <v>1.94405</v>
+        <v>1.942033333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="C84" t="n">
         <v>2.06</v>
       </c>
-      <c r="C84" t="n">
-        <v>2.019</v>
-      </c>
       <c r="D84" t="n">
-        <v>2.06</v>
+        <v>2.069</v>
       </c>
       <c r="E84" t="n">
-        <v>2.019</v>
+        <v>2.038</v>
       </c>
       <c r="F84" t="n">
-        <v>5091563.1112</v>
+        <v>2124456.5272</v>
       </c>
       <c r="G84" t="n">
-        <v>1.945216666666667</v>
+        <v>1.94405</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="C85" t="n">
-        <v>2.048</v>
+        <v>2.019</v>
       </c>
       <c r="D85" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="E85" t="n">
         <v>2.019</v>
       </c>
       <c r="F85" t="n">
-        <v>3969947.8667</v>
+        <v>5091563.1112</v>
       </c>
       <c r="G85" t="n">
-        <v>1.947033333333334</v>
+        <v>1.945216666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.058</v>
+        <v>2.04</v>
       </c>
       <c r="C86" t="n">
-        <v>2.03</v>
+        <v>2.048</v>
       </c>
       <c r="D86" t="n">
-        <v>2.058</v>
+        <v>2.05</v>
       </c>
       <c r="E86" t="n">
-        <v>2.029</v>
+        <v>2.019</v>
       </c>
       <c r="F86" t="n">
-        <v>98656.78109999999</v>
+        <v>3969947.8667</v>
       </c>
       <c r="G86" t="n">
-        <v>1.948783333333334</v>
+        <v>1.947033333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.023</v>
+        <v>2.058</v>
       </c>
       <c r="C87" t="n">
-        <v>2.023</v>
+        <v>2.03</v>
       </c>
       <c r="D87" t="n">
-        <v>2.023</v>
+        <v>2.058</v>
       </c>
       <c r="E87" t="n">
-        <v>2.023</v>
+        <v>2.029</v>
       </c>
       <c r="F87" t="n">
-        <v>607369.1649</v>
+        <v>98656.78109999999</v>
       </c>
       <c r="G87" t="n">
-        <v>1.950433333333334</v>
+        <v>1.948783333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.05</v>
+        <v>2.023</v>
       </c>
       <c r="C88" t="n">
-        <v>2.05</v>
+        <v>2.023</v>
       </c>
       <c r="D88" t="n">
-        <v>2.05</v>
+        <v>2.023</v>
       </c>
       <c r="E88" t="n">
-        <v>2.05</v>
+        <v>2.023</v>
       </c>
       <c r="F88" t="n">
-        <v>243.9025</v>
+        <v>607369.1649</v>
       </c>
       <c r="G88" t="n">
-        <v>1.952466666666667</v>
+        <v>1.950433333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="C89" t="n">
-        <v>2.023</v>
+        <v>2.05</v>
       </c>
       <c r="D89" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="E89" t="n">
-        <v>2.023</v>
+        <v>2.05</v>
       </c>
       <c r="F89" t="n">
-        <v>699258.9478</v>
+        <v>243.9025</v>
       </c>
       <c r="G89" t="n">
-        <v>1.954116666666667</v>
+        <v>1.952466666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.021</v>
+        <v>2.03</v>
       </c>
       <c r="C90" t="n">
-        <v>2.047</v>
+        <v>2.023</v>
       </c>
       <c r="D90" t="n">
-        <v>2.047</v>
+        <v>2.03</v>
       </c>
       <c r="E90" t="n">
-        <v>2.019</v>
+        <v>2.023</v>
       </c>
       <c r="F90" t="n">
-        <v>2685758.2382</v>
+        <v>699258.9478</v>
       </c>
       <c r="G90" t="n">
-        <v>1.9561</v>
+        <v>1.954116666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.057</v>
+        <v>2.021</v>
       </c>
       <c r="C91" t="n">
-        <v>2.007</v>
+        <v>2.047</v>
       </c>
       <c r="D91" t="n">
-        <v>2.057</v>
+        <v>2.047</v>
       </c>
       <c r="E91" t="n">
-        <v>2.007</v>
+        <v>2.019</v>
       </c>
       <c r="F91" t="n">
-        <v>535068.5061</v>
+        <v>2685758.2382</v>
       </c>
       <c r="G91" t="n">
-        <v>1.957216666666667</v>
+        <v>1.9561</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.009</v>
+        <v>2.057</v>
       </c>
       <c r="C92" t="n">
-        <v>2.009</v>
+        <v>2.007</v>
       </c>
       <c r="D92" t="n">
-        <v>2.02</v>
+        <v>2.057</v>
       </c>
       <c r="E92" t="n">
-        <v>2.009</v>
+        <v>2.007</v>
       </c>
       <c r="F92" t="n">
-        <v>608895.8438</v>
+        <v>535068.5061</v>
       </c>
       <c r="G92" t="n">
-        <v>1.958366666666667</v>
+        <v>1.957216666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.011</v>
+        <v>2.009</v>
       </c>
       <c r="C93" t="n">
-        <v>2.011</v>
+        <v>2.009</v>
       </c>
       <c r="D93" t="n">
-        <v>2.011</v>
+        <v>2.02</v>
       </c>
       <c r="E93" t="n">
-        <v>2.011</v>
+        <v>2.009</v>
       </c>
       <c r="F93" t="n">
-        <v>59314.5728</v>
+        <v>608895.8438</v>
       </c>
       <c r="G93" t="n">
-        <v>1.95955</v>
+        <v>1.958366666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.008</v>
+        <v>2.011</v>
       </c>
       <c r="C94" t="n">
-        <v>2.019</v>
+        <v>2.011</v>
       </c>
       <c r="D94" t="n">
-        <v>2.019</v>
+        <v>2.011</v>
       </c>
       <c r="E94" t="n">
-        <v>1.965</v>
+        <v>2.011</v>
       </c>
       <c r="F94" t="n">
-        <v>2650256.4651</v>
+        <v>59314.5728</v>
       </c>
       <c r="G94" t="n">
-        <v>1.960983333333334</v>
+        <v>1.95955</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.998</v>
+        <v>2.008</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>2.019</v>
       </c>
       <c r="D95" t="n">
-        <v>2.04</v>
+        <v>2.019</v>
       </c>
       <c r="E95" t="n">
-        <v>1.994</v>
+        <v>1.965</v>
       </c>
       <c r="F95" t="n">
-        <v>212610.8175</v>
+        <v>2650256.4651</v>
       </c>
       <c r="G95" t="n">
-        <v>1.962</v>
+        <v>1.960983333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.009</v>
+        <v>1.998</v>
       </c>
       <c r="C96" t="n">
-        <v>2.009</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>2.009</v>
+        <v>2.04</v>
       </c>
       <c r="E96" t="n">
-        <v>2.009</v>
+        <v>1.994</v>
       </c>
       <c r="F96" t="n">
-        <v>37263.2487</v>
+        <v>212610.8175</v>
       </c>
       <c r="G96" t="n">
-        <v>1.963250000000001</v>
+        <v>1.962</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.998</v>
+        <v>2.009</v>
       </c>
       <c r="C97" t="n">
-        <v>1.994</v>
+        <v>2.009</v>
       </c>
       <c r="D97" t="n">
-        <v>1.998</v>
+        <v>2.009</v>
       </c>
       <c r="E97" t="n">
-        <v>1.994</v>
+        <v>2.009</v>
       </c>
       <c r="F97" t="n">
-        <v>97914.0955</v>
+        <v>37263.2487</v>
       </c>
       <c r="G97" t="n">
-        <v>1.964433333333334</v>
+        <v>1.963250000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>1.998</v>
       </c>
       <c r="C98" t="n">
-        <v>1.96</v>
+        <v>1.994</v>
       </c>
       <c r="D98" t="n">
         <v>1.998</v>
       </c>
       <c r="E98" t="n">
-        <v>1.96</v>
+        <v>1.994</v>
       </c>
       <c r="F98" t="n">
-        <v>2701382.972</v>
+        <v>97914.0955</v>
       </c>
       <c r="G98" t="n">
-        <v>1.965033333333334</v>
+        <v>1.964433333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.97</v>
+        <v>1.998</v>
       </c>
       <c r="C99" t="n">
-        <v>1.961</v>
+        <v>1.96</v>
       </c>
       <c r="D99" t="n">
-        <v>1.97</v>
+        <v>1.998</v>
       </c>
       <c r="E99" t="n">
-        <v>1.961</v>
+        <v>1.96</v>
       </c>
       <c r="F99" t="n">
-        <v>70823.1366</v>
+        <v>2701382.972</v>
       </c>
       <c r="G99" t="n">
-        <v>1.965633333333334</v>
+        <v>1.965033333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="C100" t="n">
-        <v>1.96</v>
+        <v>1.961</v>
       </c>
       <c r="D100" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="E100" t="n">
-        <v>1.96</v>
+        <v>1.961</v>
       </c>
       <c r="F100" t="n">
-        <v>302370.6488</v>
+        <v>70823.1366</v>
       </c>
       <c r="G100" t="n">
-        <v>1.966216666666667</v>
+        <v>1.965633333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="C101" t="n">
-        <v>1.945</v>
+        <v>1.96</v>
       </c>
       <c r="D101" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="E101" t="n">
-        <v>1.945</v>
+        <v>1.96</v>
       </c>
       <c r="F101" t="n">
-        <v>526310.7289</v>
+        <v>302370.6488</v>
       </c>
       <c r="G101" t="n">
-        <v>1.9663</v>
+        <v>1.966216666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.935</v>
+        <v>1.95</v>
       </c>
       <c r="C102" t="n">
-        <v>1.935</v>
+        <v>1.945</v>
       </c>
       <c r="D102" t="n">
-        <v>1.935</v>
+        <v>1.95</v>
       </c>
       <c r="E102" t="n">
-        <v>1.935</v>
+        <v>1.945</v>
       </c>
       <c r="F102" t="n">
-        <v>36673.58</v>
+        <v>526310.7289</v>
       </c>
       <c r="G102" t="n">
-        <v>1.9664</v>
+        <v>1.9663</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.938</v>
+        <v>1.935</v>
       </c>
       <c r="C103" t="n">
-        <v>1.934</v>
+        <v>1.935</v>
       </c>
       <c r="D103" t="n">
-        <v>1.938</v>
+        <v>1.935</v>
       </c>
       <c r="E103" t="n">
-        <v>1.934</v>
+        <v>1.935</v>
       </c>
       <c r="F103" t="n">
-        <v>998655.9261</v>
+        <v>36673.58</v>
       </c>
       <c r="G103" t="n">
-        <v>1.966583333333333</v>
+        <v>1.9664</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.957</v>
+        <v>1.938</v>
       </c>
       <c r="C104" t="n">
         <v>1.934</v>
       </c>
       <c r="D104" t="n">
-        <v>1.957</v>
+        <v>1.938</v>
       </c>
       <c r="E104" t="n">
         <v>1.934</v>
       </c>
       <c r="F104" t="n">
-        <v>185824.9154</v>
+        <v>998655.9261</v>
       </c>
       <c r="G104" t="n">
-        <v>1.966783333333333</v>
+        <v>1.966583333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.968</v>
+        <v>1.957</v>
       </c>
       <c r="C105" t="n">
-        <v>1.968</v>
+        <v>1.934</v>
       </c>
       <c r="D105" t="n">
-        <v>1.968</v>
+        <v>1.957</v>
       </c>
       <c r="E105" t="n">
-        <v>1.968</v>
+        <v>1.934</v>
       </c>
       <c r="F105" t="n">
-        <v>63134.3202</v>
+        <v>185824.9154</v>
       </c>
       <c r="G105" t="n">
-        <v>1.967516666666667</v>
+        <v>1.966783333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.957</v>
+        <v>1.968</v>
       </c>
       <c r="C106" t="n">
-        <v>1.957</v>
+        <v>1.968</v>
       </c>
       <c r="D106" t="n">
-        <v>1.957</v>
+        <v>1.968</v>
       </c>
       <c r="E106" t="n">
-        <v>1.957</v>
+        <v>1.968</v>
       </c>
       <c r="F106" t="n">
-        <v>15736.7757</v>
+        <v>63134.3202</v>
       </c>
       <c r="G106" t="n">
-        <v>1.9681</v>
+        <v>1.967516666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.946</v>
+        <v>1.957</v>
       </c>
       <c r="C107" t="n">
-        <v>1.946</v>
+        <v>1.957</v>
       </c>
       <c r="D107" t="n">
-        <v>1.946</v>
+        <v>1.957</v>
       </c>
       <c r="E107" t="n">
-        <v>1.946</v>
+        <v>1.957</v>
       </c>
       <c r="F107" t="n">
-        <v>129275.5627</v>
+        <v>15736.7757</v>
       </c>
       <c r="G107" t="n">
-        <v>1.96865</v>
+        <v>1.9681</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.935</v>
+        <v>1.946</v>
       </c>
       <c r="C108" t="n">
-        <v>1.935</v>
+        <v>1.946</v>
       </c>
       <c r="D108" t="n">
-        <v>1.935</v>
+        <v>1.946</v>
       </c>
       <c r="E108" t="n">
-        <v>1.935</v>
+        <v>1.946</v>
       </c>
       <c r="F108" t="n">
-        <v>53816.2523</v>
+        <v>129275.5627</v>
       </c>
       <c r="G108" t="n">
-        <v>1.968816666666667</v>
+        <v>1.96865</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.947</v>
+        <v>1.935</v>
       </c>
       <c r="C109" t="n">
-        <v>1.947</v>
+        <v>1.935</v>
       </c>
       <c r="D109" t="n">
-        <v>1.947</v>
+        <v>1.935</v>
       </c>
       <c r="E109" t="n">
-        <v>1.947</v>
+        <v>1.935</v>
       </c>
       <c r="F109" t="n">
-        <v>892</v>
+        <v>53816.2523</v>
       </c>
       <c r="G109" t="n">
-        <v>1.969266666666667</v>
+        <v>1.968816666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.935</v>
+        <v>1.947</v>
       </c>
       <c r="C110" t="n">
-        <v>1.935</v>
+        <v>1.947</v>
       </c>
       <c r="D110" t="n">
-        <v>1.935</v>
+        <v>1.947</v>
       </c>
       <c r="E110" t="n">
-        <v>1.935</v>
+        <v>1.947</v>
       </c>
       <c r="F110" t="n">
-        <v>129160.2452</v>
+        <v>892</v>
       </c>
       <c r="G110" t="n">
-        <v>1.96945</v>
+        <v>1.969266666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.94</v>
+        <v>1.935</v>
       </c>
       <c r="C111" t="n">
-        <v>1.94</v>
+        <v>1.935</v>
       </c>
       <c r="D111" t="n">
-        <v>1.94</v>
+        <v>1.935</v>
       </c>
       <c r="E111" t="n">
-        <v>1.94</v>
+        <v>1.935</v>
       </c>
       <c r="F111" t="n">
-        <v>26060</v>
+        <v>129160.2452</v>
       </c>
       <c r="G111" t="n">
-        <v>1.969716666666667</v>
+        <v>1.96945</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.936</v>
+        <v>1.94</v>
       </c>
       <c r="C112" t="n">
-        <v>1.936</v>
+        <v>1.94</v>
       </c>
       <c r="D112" t="n">
-        <v>1.936</v>
+        <v>1.94</v>
       </c>
       <c r="E112" t="n">
-        <v>1.936</v>
+        <v>1.94</v>
       </c>
       <c r="F112" t="n">
-        <v>74078.5802</v>
+        <v>26060</v>
       </c>
       <c r="G112" t="n">
-        <v>1.969916666666667</v>
+        <v>1.969716666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.929</v>
+        <v>1.936</v>
       </c>
       <c r="C113" t="n">
-        <v>1.929</v>
+        <v>1.936</v>
       </c>
       <c r="D113" t="n">
-        <v>1.929</v>
+        <v>1.936</v>
       </c>
       <c r="E113" t="n">
-        <v>1.929</v>
+        <v>1.936</v>
       </c>
       <c r="F113" t="n">
-        <v>271666.1496</v>
+        <v>74078.5802</v>
       </c>
       <c r="G113" t="n">
-        <v>1.97</v>
+        <v>1.969916666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.959</v>
+        <v>1.929</v>
       </c>
       <c r="C114" t="n">
-        <v>1.93</v>
+        <v>1.929</v>
       </c>
       <c r="D114" t="n">
-        <v>1.959</v>
+        <v>1.929</v>
       </c>
       <c r="E114" t="n">
-        <v>1.93</v>
+        <v>1.929</v>
       </c>
       <c r="F114" t="n">
-        <v>176700.109099591</v>
+        <v>271666.1496</v>
       </c>
       <c r="G114" t="n">
-        <v>1.9701</v>
+        <v>1.97</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.93</v>
+        <v>1.959</v>
       </c>
       <c r="C115" t="n">
         <v>1.93</v>
       </c>
       <c r="D115" t="n">
-        <v>1.93</v>
+        <v>1.959</v>
       </c>
       <c r="E115" t="n">
         <v>1.93</v>
       </c>
       <c r="F115" t="n">
-        <v>118183.3892</v>
+        <v>176700.109099591</v>
       </c>
       <c r="G115" t="n">
-        <v>1.970183333333333</v>
+        <v>1.9701</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.959</v>
+        <v>1.93</v>
       </c>
       <c r="C116" t="n">
-        <v>1.959</v>
+        <v>1.93</v>
       </c>
       <c r="D116" t="n">
-        <v>1.959</v>
+        <v>1.93</v>
       </c>
       <c r="E116" t="n">
-        <v>1.959</v>
+        <v>1.93</v>
       </c>
       <c r="F116" t="n">
-        <v>65076.6071</v>
+        <v>118183.3892</v>
       </c>
       <c r="G116" t="n">
-        <v>1.970583333333333</v>
+        <v>1.970183333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.949</v>
+        <v>1.959</v>
       </c>
       <c r="C117" t="n">
         <v>1.959</v>
@@ -4467,13 +4467,13 @@
         <v>1.959</v>
       </c>
       <c r="E117" t="n">
-        <v>1.949</v>
+        <v>1.959</v>
       </c>
       <c r="F117" t="n">
-        <v>254595.7566</v>
+        <v>65076.6071</v>
       </c>
       <c r="G117" t="n">
-        <v>1.9709</v>
+        <v>1.970583333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.94</v>
+        <v>1.949</v>
       </c>
       <c r="C118" t="n">
-        <v>1.94</v>
+        <v>1.959</v>
       </c>
       <c r="D118" t="n">
-        <v>1.94</v>
+        <v>1.959</v>
       </c>
       <c r="E118" t="n">
-        <v>1.94</v>
+        <v>1.949</v>
       </c>
       <c r="F118" t="n">
-        <v>108983.7399</v>
+        <v>254595.7566</v>
       </c>
       <c r="G118" t="n">
-        <v>1.9708</v>
+        <v>1.9709</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="C119" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="D119" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="E119" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="F119" t="n">
-        <v>244</v>
+        <v>108983.7399</v>
       </c>
       <c r="G119" t="n">
-        <v>1.97125</v>
+        <v>1.9708</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.936</v>
+        <v>1.95</v>
       </c>
       <c r="C120" t="n">
-        <v>1.936</v>
+        <v>1.95</v>
       </c>
       <c r="D120" t="n">
-        <v>1.936</v>
+        <v>1.95</v>
       </c>
       <c r="E120" t="n">
-        <v>1.936</v>
+        <v>1.95</v>
       </c>
       <c r="F120" t="n">
-        <v>40883.4332</v>
+        <v>244</v>
       </c>
       <c r="G120" t="n">
-        <v>1.971083333333334</v>
+        <v>1.97125</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.95</v>
+        <v>1.936</v>
       </c>
       <c r="C121" t="n">
-        <v>1.95</v>
+        <v>1.936</v>
       </c>
       <c r="D121" t="n">
-        <v>1.95</v>
+        <v>1.936</v>
       </c>
       <c r="E121" t="n">
-        <v>1.95</v>
+        <v>1.936</v>
       </c>
       <c r="F121" t="n">
-        <v>253</v>
+        <v>40883.4332</v>
       </c>
       <c r="G121" t="n">
-        <v>1.97115</v>
+        <v>1.971083333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.939</v>
+        <v>1.95</v>
       </c>
       <c r="C122" t="n">
-        <v>1.939</v>
+        <v>1.95</v>
       </c>
       <c r="D122" t="n">
-        <v>1.939</v>
+        <v>1.95</v>
       </c>
       <c r="E122" t="n">
-        <v>1.939</v>
+        <v>1.95</v>
       </c>
       <c r="F122" t="n">
-        <v>28865.8129</v>
+        <v>253</v>
       </c>
       <c r="G122" t="n">
-        <v>1.971033333333334</v>
+        <v>1.97115</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4671,19 +4671,19 @@
         <v>1.939</v>
       </c>
       <c r="C123" t="n">
-        <v>1.925</v>
+        <v>1.939</v>
       </c>
       <c r="D123" t="n">
         <v>1.939</v>
       </c>
       <c r="E123" t="n">
-        <v>1.925</v>
+        <v>1.939</v>
       </c>
       <c r="F123" t="n">
-        <v>728444.2432</v>
+        <v>28865.8129</v>
       </c>
       <c r="G123" t="n">
-        <v>1.970683333333334</v>
+        <v>1.971033333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.929</v>
+        <v>1.939</v>
       </c>
       <c r="C124" t="n">
         <v>1.925</v>
       </c>
       <c r="D124" t="n">
-        <v>1.929</v>
+        <v>1.939</v>
       </c>
       <c r="E124" t="n">
         <v>1.925</v>
       </c>
       <c r="F124" t="n">
-        <v>791969.403</v>
+        <v>728444.2432</v>
       </c>
       <c r="G124" t="n">
-        <v>1.970333333333334</v>
+        <v>1.970683333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.926</v>
+        <v>1.929</v>
       </c>
       <c r="C125" t="n">
-        <v>1.926</v>
+        <v>1.925</v>
       </c>
       <c r="D125" t="n">
-        <v>1.926</v>
+        <v>1.929</v>
       </c>
       <c r="E125" t="n">
-        <v>1.926</v>
+        <v>1.925</v>
       </c>
       <c r="F125" t="n">
-        <v>10804.1907</v>
+        <v>791969.403</v>
       </c>
       <c r="G125" t="n">
-        <v>1.970266666666667</v>
+        <v>1.970333333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4776,19 +4776,19 @@
         <v>1.926</v>
       </c>
       <c r="C126" t="n">
-        <v>1.92</v>
+        <v>1.926</v>
       </c>
       <c r="D126" t="n">
         <v>1.926</v>
       </c>
       <c r="E126" t="n">
-        <v>1.92</v>
+        <v>1.926</v>
       </c>
       <c r="F126" t="n">
-        <v>1020875.7066</v>
+        <v>10804.1907</v>
       </c>
       <c r="G126" t="n">
-        <v>1.969816666666667</v>
+        <v>1.970266666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.923</v>
+        <v>1.926</v>
       </c>
       <c r="C127" t="n">
-        <v>1.924</v>
+        <v>1.92</v>
       </c>
       <c r="D127" t="n">
-        <v>1.924</v>
+        <v>1.926</v>
       </c>
       <c r="E127" t="n">
-        <v>1.923</v>
+        <v>1.92</v>
       </c>
       <c r="F127" t="n">
-        <v>47568.5314</v>
+        <v>1020875.7066</v>
       </c>
       <c r="G127" t="n">
-        <v>1.969433333333334</v>
+        <v>1.969816666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.921</v>
+        <v>1.923</v>
       </c>
       <c r="C128" t="n">
-        <v>1.921</v>
+        <v>1.924</v>
       </c>
       <c r="D128" t="n">
-        <v>1.921</v>
+        <v>1.924</v>
       </c>
       <c r="E128" t="n">
-        <v>1.921</v>
+        <v>1.923</v>
       </c>
       <c r="F128" t="n">
-        <v>21115.0758</v>
+        <v>47568.5314</v>
       </c>
       <c r="G128" t="n">
-        <v>1.969000000000001</v>
+        <v>1.969433333333334</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.92</v>
+        <v>1.921</v>
       </c>
       <c r="C129" t="n">
-        <v>1.92</v>
+        <v>1.921</v>
       </c>
       <c r="D129" t="n">
-        <v>1.92</v>
+        <v>1.921</v>
       </c>
       <c r="E129" t="n">
-        <v>1.92</v>
+        <v>1.921</v>
       </c>
       <c r="F129" t="n">
-        <v>38763.1956</v>
+        <v>21115.0758</v>
       </c>
       <c r="G129" t="n">
-        <v>1.96855</v>
+        <v>1.969000000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.924</v>
+        <v>1.92</v>
       </c>
       <c r="C130" t="n">
-        <v>1.924</v>
+        <v>1.92</v>
       </c>
       <c r="D130" t="n">
-        <v>1.924</v>
+        <v>1.92</v>
       </c>
       <c r="E130" t="n">
-        <v>1.924</v>
+        <v>1.92</v>
       </c>
       <c r="F130" t="n">
-        <v>257</v>
+        <v>38763.1956</v>
       </c>
       <c r="G130" t="n">
-        <v>1.968066666666667</v>
+        <v>1.96855</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="C131" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="D131" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="E131" t="n">
-        <v>1.92</v>
+        <v>1.924</v>
       </c>
       <c r="F131" t="n">
-        <v>243158.678</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
-        <v>1.967416666666667</v>
+        <v>1.968066666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.937</v>
+        <v>1.92</v>
       </c>
       <c r="C132" t="n">
-        <v>1.937</v>
+        <v>1.92</v>
       </c>
       <c r="D132" t="n">
-        <v>1.937</v>
+        <v>1.92</v>
       </c>
       <c r="E132" t="n">
-        <v>1.937</v>
+        <v>1.92</v>
       </c>
       <c r="F132" t="n">
-        <v>1040.9598</v>
+        <v>243158.678</v>
       </c>
       <c r="G132" t="n">
-        <v>1.96705</v>
+        <v>1.967416666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.92</v>
+        <v>1.937</v>
       </c>
       <c r="C133" t="n">
-        <v>1.92</v>
+        <v>1.937</v>
       </c>
       <c r="D133" t="n">
-        <v>1.92</v>
+        <v>1.937</v>
       </c>
       <c r="E133" t="n">
-        <v>1.92</v>
+        <v>1.937</v>
       </c>
       <c r="F133" t="n">
-        <v>486359.2522</v>
+        <v>1040.9598</v>
       </c>
       <c r="G133" t="n">
-        <v>1.966383333333334</v>
+        <v>1.96705</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="C134" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="D134" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="E134" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="F134" t="n">
-        <v>590525.9536</v>
+        <v>486359.2522</v>
       </c>
       <c r="G134" t="n">
-        <v>1.965683333333334</v>
+        <v>1.966383333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.913</v>
+        <v>1.919</v>
       </c>
       <c r="C135" t="n">
-        <v>1.9</v>
+        <v>1.919</v>
       </c>
       <c r="D135" t="n">
-        <v>1.913</v>
+        <v>1.919</v>
       </c>
       <c r="E135" t="n">
-        <v>1.9</v>
+        <v>1.919</v>
       </c>
       <c r="F135" t="n">
-        <v>1820524.022</v>
+        <v>590525.9536</v>
       </c>
       <c r="G135" t="n">
-        <v>1.964583333333334</v>
+        <v>1.965683333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.9</v>
+        <v>1.913</v>
       </c>
       <c r="C136" t="n">
         <v>1.9</v>
       </c>
       <c r="D136" t="n">
-        <v>1.9</v>
+        <v>1.913</v>
       </c>
       <c r="E136" t="n">
         <v>1.9</v>
       </c>
       <c r="F136" t="n">
-        <v>4231089.8557</v>
+        <v>1820524.022</v>
       </c>
       <c r="G136" t="n">
-        <v>1.963433333333334</v>
+        <v>1.964583333333334</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>1.9</v>
       </c>
       <c r="F137" t="n">
-        <v>97646.6465</v>
+        <v>4231089.8557</v>
       </c>
       <c r="G137" t="n">
-        <v>1.962283333333334</v>
+        <v>1.963433333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>1.9</v>
       </c>
       <c r="F138" t="n">
-        <v>1683767.8224</v>
+        <v>97646.6465</v>
       </c>
       <c r="G138" t="n">
-        <v>1.960983333333335</v>
+        <v>1.962283333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="C139" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="D139" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="E139" t="n">
-        <v>1.897</v>
+        <v>1.9</v>
       </c>
       <c r="F139" t="n">
-        <v>50000</v>
+        <v>1683767.8224</v>
       </c>
       <c r="G139" t="n">
-        <v>1.959633333333335</v>
+        <v>1.960983333333335</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5266,19 +5266,19 @@
         <v>1.898</v>
       </c>
       <c r="C140" t="n">
-        <v>1.898</v>
+        <v>1.897</v>
       </c>
       <c r="D140" t="n">
         <v>1.898</v>
       </c>
       <c r="E140" t="n">
-        <v>1.898</v>
+        <v>1.897</v>
       </c>
       <c r="F140" t="n">
-        <v>15874.658</v>
+        <v>50000</v>
       </c>
       <c r="G140" t="n">
-        <v>1.958116666666668</v>
+        <v>1.959633333333335</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="C141" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="D141" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="E141" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="F141" t="n">
-        <v>49453.1632</v>
+        <v>15874.658</v>
       </c>
       <c r="G141" t="n">
-        <v>1.956250000000001</v>
+        <v>1.958116666666668</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="C142" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="D142" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="E142" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="F142" t="n">
-        <v>2476.1254</v>
+        <v>49453.1632</v>
       </c>
       <c r="G142" t="n">
-        <v>1.953950000000002</v>
+        <v>1.956250000000001</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="C143" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="D143" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="E143" t="n">
-        <v>1.898</v>
+        <v>1.9</v>
       </c>
       <c r="F143" t="n">
-        <v>76066.3155</v>
+        <v>2476.1254</v>
       </c>
       <c r="G143" t="n">
-        <v>1.951250000000001</v>
+        <v>1.953950000000002</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="C144" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="D144" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="E144" t="n">
-        <v>1.897</v>
+        <v>1.898</v>
       </c>
       <c r="F144" t="n">
-        <v>347826.6692</v>
+        <v>76066.3155</v>
       </c>
       <c r="G144" t="n">
-        <v>1.949216666666668</v>
+        <v>1.951250000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.896</v>
+        <v>1.897</v>
       </c>
       <c r="C145" t="n">
-        <v>1.896</v>
+        <v>1.897</v>
       </c>
       <c r="D145" t="n">
-        <v>1.896</v>
+        <v>1.897</v>
       </c>
       <c r="E145" t="n">
-        <v>1.896</v>
+        <v>1.897</v>
       </c>
       <c r="F145" t="n">
-        <v>76737.3037</v>
+        <v>347826.6692</v>
       </c>
       <c r="G145" t="n">
-        <v>1.946683333333335</v>
+        <v>1.949216666666668</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.89</v>
+        <v>1.896</v>
       </c>
       <c r="C146" t="n">
-        <v>1.89</v>
+        <v>1.896</v>
       </c>
       <c r="D146" t="n">
-        <v>1.89</v>
+        <v>1.896</v>
       </c>
       <c r="E146" t="n">
-        <v>1.89</v>
+        <v>1.896</v>
       </c>
       <c r="F146" t="n">
-        <v>316501.7509</v>
+        <v>76737.3037</v>
       </c>
       <c r="G146" t="n">
-        <v>1.944350000000001</v>
+        <v>1.946683333333335</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.888</v>
+        <v>1.89</v>
       </c>
       <c r="C147" t="n">
-        <v>1.888</v>
+        <v>1.89</v>
       </c>
       <c r="D147" t="n">
-        <v>1.888</v>
+        <v>1.89</v>
       </c>
       <c r="E147" t="n">
-        <v>1.888</v>
+        <v>1.89</v>
       </c>
       <c r="F147" t="n">
-        <v>98240.5825</v>
+        <v>316501.7509</v>
       </c>
       <c r="G147" t="n">
-        <v>1.942100000000001</v>
+        <v>1.944350000000001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.889</v>
+        <v>1.888</v>
       </c>
       <c r="C148" t="n">
-        <v>1.889</v>
+        <v>1.888</v>
       </c>
       <c r="D148" t="n">
-        <v>1.889</v>
+        <v>1.888</v>
       </c>
       <c r="E148" t="n">
         <v>1.888</v>
       </c>
       <c r="F148" t="n">
-        <v>193308.1813</v>
+        <v>98240.5825</v>
       </c>
       <c r="G148" t="n">
-        <v>1.939416666666668</v>
+        <v>1.942100000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5587,13 +5587,13 @@
         <v>1.889</v>
       </c>
       <c r="E149" t="n">
-        <v>1.889</v>
+        <v>1.888</v>
       </c>
       <c r="F149" t="n">
-        <v>82699.571</v>
+        <v>193308.1813</v>
       </c>
       <c r="G149" t="n">
-        <v>1.937183333333335</v>
+        <v>1.939416666666668</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5625,10 +5625,10 @@
         <v>1.889</v>
       </c>
       <c r="F150" t="n">
-        <v>6000</v>
+        <v>82699.571</v>
       </c>
       <c r="G150" t="n">
-        <v>1.934550000000002</v>
+        <v>1.937183333333335</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,35 +5648,31 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="C151" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="D151" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="E151" t="n">
-        <v>1.9</v>
+        <v>1.889</v>
       </c>
       <c r="F151" t="n">
-        <v>261</v>
+        <v>6000</v>
       </c>
       <c r="G151" t="n">
-        <v>1.932766666666668</v>
+        <v>1.934550000000002</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="K151" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
@@ -5687,2420 +5683,2090 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F152" t="n">
+        <v>261</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1.932766666666668</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
         <v>1.889</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C153" t="n">
         <v>1.888</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D153" t="n">
         <v>1.889</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E153" t="n">
         <v>1.888</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F153" t="n">
         <v>105000</v>
       </c>
-      <c r="G152" t="n">
+      <c r="G153" t="n">
         <v>1.930750000000002</v>
       </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="F154" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.928700000000002</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
         <v>1.9</v>
       </c>
-      <c r="K152" t="n">
+      <c r="C155" t="n">
         <v>1.889</v>
       </c>
-      <c r="L152" t="inlineStr">
+      <c r="D155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1728905.1949</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.926533333333335</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F156" t="n">
+        <v>61854.3314</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.924866666666669</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1341.4896</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.923316666666668</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="F158" t="n">
+        <v>56216.2765</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.922033333333335</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F159" t="n">
+        <v>929055.3972</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1.921333333333335</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="F160" t="n">
+        <v>512684.1767</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.920583333333335</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F161" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.919633333333336</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F162" t="n">
+        <v>81474.25</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.918933333333336</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F163" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.918233333333336</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F164" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.917716666666669</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F165" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.917200000000002</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F166" t="n">
+        <v>250270.6981</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1.916350000000002</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="F167" t="n">
+        <v>75136.82120000001</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.915683333333336</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F168" t="n">
+        <v>71860.3256</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.914900000000003</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F169" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1.914300000000003</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F170" t="n">
+        <v>65000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1.913500000000003</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F171" t="n">
+        <v>26780.8212</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.912900000000003</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F172" t="n">
+        <v>162321.4169</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1.912233333333336</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F173" t="n">
+        <v>439381.6405</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1.911883333333336</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="F174" t="n">
+        <v>143512.3185</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1.911650000000003</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F175" t="n">
+        <v>245055.6224</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1.911400000000003</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F176" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1.910783333333336</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F177" t="n">
+        <v>44960</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1.909800000000003</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F178" t="n">
+        <v>596822.3386</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1.908650000000003</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F179" t="n">
+        <v>150249.3712</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1.907816666666669</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F180" t="n">
+        <v>191782.6615</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1.906816666666669</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F181" t="n">
+        <v>65000</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1.906033333333336</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F182" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1.905016666666669</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F183" t="n">
+        <v>7902.4976</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1.904200000000003</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F184" t="n">
+        <v>70000</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1.903616666666669</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F185" t="n">
+        <v>62618.8082</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1.903200000000003</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F186" t="n">
+        <v>8800.144700000001</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1.902800000000003</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="F187" t="n">
+        <v>65000</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1.90231666666667</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F188" t="n">
+        <v>257</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1.901950000000003</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="F189" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.901450000000003</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="F190" t="n">
+        <v>55263</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1.900966666666669</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F191" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1.900450000000003</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F192" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.900016666666669</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F193" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1.899300000000003</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F194" t="n">
+        <v>105266.229</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.899000000000003</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F195" t="n">
+        <v>59577.4795</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1.898733333333336</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F196" t="n">
+        <v>67396.83</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1.89876666666667</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F197" t="n">
+        <v>32024.9114</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1.89876666666667</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F198" t="n">
+        <v>122667.5679</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1.89876666666667</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F199" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.89866666666667</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F200" t="n">
+        <v>178506.3213</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1.89861666666667</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F201" t="n">
+        <v>263.0125</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.898783333333336</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F202" t="n">
+        <v>61943.5508</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1.898733333333336</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F203" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1.898633333333336</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="F204" t="n">
+        <v>317033.912808502</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1.898950000000003</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F205" t="n">
+        <v>70882.9139</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1.898900000000003</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F206" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1.89886666666667</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="F207" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1.898950000000003</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="F208" t="n">
+        <v>65000</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1.89906666666667</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="F209" t="n">
+        <v>55259</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1.89916666666667</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="K209" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F210" t="n">
+        <v>70000</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1.899250000000003</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="E153" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="F153" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1.928700000000002</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="K153" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E154" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1728905.1949</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1.926533333333335</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="E155" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F155" t="n">
-        <v>61854.3314</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1.924866666666669</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="E156" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1341.4896</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1.923316666666668</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="E157" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="F157" t="n">
-        <v>56216.2765</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1.922033333333335</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="E158" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="F158" t="n">
-        <v>929055.3972</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1.921333333333335</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="E159" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="F159" t="n">
-        <v>512684.1767</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1.920583333333335</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E160" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="F160" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1.919633333333336</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E161" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="F161" t="n">
-        <v>81474.25</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1.918933333333336</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D162" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E162" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F162" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1.918233333333336</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D163" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E163" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="F163" t="n">
-        <v>55000</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1.917716666666669</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D164" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E164" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="F164" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1.917200000000002</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="D165" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="E165" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F165" t="n">
-        <v>250270.6981</v>
-      </c>
-      <c r="G165" t="n">
-        <v>1.916350000000002</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="D166" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="E166" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="F166" t="n">
-        <v>75136.82120000001</v>
-      </c>
-      <c r="G166" t="n">
-        <v>1.915683333333336</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="D167" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E167" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="F167" t="n">
-        <v>71860.3256</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1.914900000000003</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="D168" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="E168" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="F168" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1.914300000000003</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="D169" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="E169" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="F169" t="n">
-        <v>65000</v>
-      </c>
-      <c r="G169" t="n">
-        <v>1.913500000000003</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="D170" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="E170" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="F170" t="n">
-        <v>26780.8212</v>
-      </c>
-      <c r="G170" t="n">
-        <v>1.912900000000003</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F171" t="n">
-        <v>162321.4169</v>
-      </c>
-      <c r="G171" t="n">
-        <v>1.912233333333336</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F172" t="n">
-        <v>439381.6405</v>
-      </c>
-      <c r="G172" t="n">
-        <v>1.911883333333336</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="F173" t="n">
-        <v>143512.3185</v>
-      </c>
-      <c r="G173" t="n">
-        <v>1.911650000000003</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F174" t="n">
-        <v>245055.6224</v>
-      </c>
-      <c r="G174" t="n">
-        <v>1.911400000000003</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F175" t="n">
-        <v>55000</v>
-      </c>
-      <c r="G175" t="n">
-        <v>1.910783333333336</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F176" t="n">
-        <v>44960</v>
-      </c>
-      <c r="G176" t="n">
-        <v>1.909800000000003</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F177" t="n">
-        <v>596822.3386</v>
-      </c>
-      <c r="G177" t="n">
-        <v>1.908650000000003</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F178" t="n">
-        <v>150249.3712</v>
-      </c>
-      <c r="G178" t="n">
-        <v>1.907816666666669</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F179" t="n">
-        <v>191782.6615</v>
-      </c>
-      <c r="G179" t="n">
-        <v>1.906816666666669</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="F180" t="n">
-        <v>65000</v>
-      </c>
-      <c r="G180" t="n">
-        <v>1.906033333333336</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="F181" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G181" t="n">
-        <v>1.905016666666669</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F182" t="n">
-        <v>7902.4976</v>
-      </c>
-      <c r="G182" t="n">
-        <v>1.904200000000003</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F183" t="n">
-        <v>70000</v>
-      </c>
-      <c r="G183" t="n">
-        <v>1.903616666666669</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F184" t="n">
-        <v>62618.8082</v>
-      </c>
-      <c r="G184" t="n">
-        <v>1.903200000000003</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F185" t="n">
-        <v>8800.144700000001</v>
-      </c>
-      <c r="G185" t="n">
-        <v>1.902800000000003</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="F186" t="n">
-        <v>65000</v>
-      </c>
-      <c r="G186" t="n">
-        <v>1.90231666666667</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E187" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F187" t="n">
-        <v>257</v>
-      </c>
-      <c r="G187" t="n">
-        <v>1.901950000000003</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="D188" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="F188" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G188" t="n">
-        <v>1.901450000000003</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="D189" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E189" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="F189" t="n">
-        <v>55263</v>
-      </c>
-      <c r="G189" t="n">
-        <v>1.900966666666669</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F190" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G190" t="n">
-        <v>1.900450000000003</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F191" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G191" t="n">
-        <v>1.900016666666669</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F192" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G192" t="n">
-        <v>1.899300000000003</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E193" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F193" t="n">
-        <v>105266.229</v>
-      </c>
-      <c r="G193" t="n">
-        <v>1.899000000000003</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="F194" t="n">
-        <v>59577.4795</v>
-      </c>
-      <c r="G194" t="n">
-        <v>1.898733333333336</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D195" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E195" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F195" t="n">
-        <v>67396.83</v>
-      </c>
-      <c r="G195" t="n">
-        <v>1.89876666666667</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E196" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F196" t="n">
-        <v>32024.9114</v>
-      </c>
-      <c r="G196" t="n">
-        <v>1.89876666666667</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F197" t="n">
-        <v>122667.5679</v>
-      </c>
-      <c r="G197" t="n">
-        <v>1.89876666666667</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E198" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F198" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G198" t="n">
-        <v>1.89866666666667</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E199" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F199" t="n">
-        <v>178506.3213</v>
-      </c>
-      <c r="G199" t="n">
-        <v>1.89861666666667</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="E200" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="F200" t="n">
-        <v>263.0125</v>
-      </c>
-      <c r="G200" t="n">
-        <v>1.898783333333336</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E201" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F201" t="n">
-        <v>61943.5508</v>
-      </c>
-      <c r="G201" t="n">
-        <v>1.898733333333336</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D202" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E202" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F202" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G202" t="n">
-        <v>1.898633333333336</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="D203" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="E203" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="F203" t="n">
-        <v>317033.912808502</v>
-      </c>
-      <c r="G203" t="n">
-        <v>1.898950000000003</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E204" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F204" t="n">
-        <v>70882.9139</v>
-      </c>
-      <c r="G204" t="n">
-        <v>1.898900000000003</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E205" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F205" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G205" t="n">
-        <v>1.89886666666667</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="E206" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="F206" t="n">
-        <v>55000</v>
-      </c>
-      <c r="G206" t="n">
-        <v>1.898950000000003</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="D207" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="E207" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="F207" t="n">
-        <v>65000</v>
-      </c>
-      <c r="G207" t="n">
-        <v>1.89906666666667</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E208" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="F208" t="n">
-        <v>55259</v>
-      </c>
-      <c r="G208" t="n">
-        <v>1.89916666666667</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="E209" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F209" t="n">
-        <v>70000</v>
-      </c>
-      <c r="G209" t="n">
-        <v>1.899250000000003</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E210" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F210" t="n">
-        <v>55000</v>
-      </c>
-      <c r="G210" t="n">
-        <v>1.899333333333337</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8122,10 +7788,10 @@
         <v>1.894</v>
       </c>
       <c r="F211" t="n">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="G211" t="n">
-        <v>1.899233333333336</v>
+        <v>1.899333333333337</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8135,7 +7801,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -8166,7 +7832,7 @@
         <v>60000</v>
       </c>
       <c r="G212" t="n">
-        <v>1.899333333333337</v>
+        <v>1.899233333333336</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8176,7 +7842,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -8204,10 +7870,10 @@
         <v>1.894</v>
       </c>
       <c r="F213" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="G213" t="n">
-        <v>1.899433333333337</v>
+        <v>1.899333333333337</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8217,7 +7883,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -8236,19 +7902,19 @@
         <v>1.894</v>
       </c>
       <c r="C214" t="n">
-        <v>1.893</v>
+        <v>1.894</v>
       </c>
       <c r="D214" t="n">
         <v>1.894</v>
       </c>
       <c r="E214" t="n">
-        <v>1.893</v>
+        <v>1.894</v>
       </c>
       <c r="F214" t="n">
-        <v>199782.1697</v>
+        <v>100000</v>
       </c>
       <c r="G214" t="n">
-        <v>1.899500000000003</v>
+        <v>1.899433333333337</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8258,7 +7924,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -8274,22 +7940,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.893</v>
+        <v>1.894</v>
       </c>
       <c r="C215" t="n">
         <v>1.893</v>
       </c>
       <c r="D215" t="n">
-        <v>1.893</v>
+        <v>1.894</v>
       </c>
       <c r="E215" t="n">
         <v>1.893</v>
       </c>
       <c r="F215" t="n">
-        <v>130000</v>
+        <v>199782.1697</v>
       </c>
       <c r="G215" t="n">
-        <v>1.899383333333337</v>
+        <v>1.899500000000003</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8299,7 +7965,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -8327,10 +7993,10 @@
         <v>1.893</v>
       </c>
       <c r="F216" t="n">
-        <v>45000</v>
+        <v>130000</v>
       </c>
       <c r="G216" t="n">
-        <v>1.899000000000003</v>
+        <v>1.899383333333337</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8340,7 +8006,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -8368,10 +8034,10 @@
         <v>1.893</v>
       </c>
       <c r="F217" t="n">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="G217" t="n">
-        <v>1.898600000000003</v>
+        <v>1.899000000000003</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8381,7 +8047,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -8397,22 +8063,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.908</v>
+        <v>1.893</v>
       </c>
       <c r="C218" t="n">
-        <v>1.91</v>
+        <v>1.893</v>
       </c>
       <c r="D218" t="n">
-        <v>1.91</v>
+        <v>1.893</v>
       </c>
       <c r="E218" t="n">
-        <v>1.908</v>
+        <v>1.893</v>
       </c>
       <c r="F218" t="n">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="G218" t="n">
-        <v>1.89846666666667</v>
+        <v>1.898600000000003</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8422,7 +8088,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -8438,22 +8104,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1.893</v>
+        <v>1.908</v>
       </c>
       <c r="C219" t="n">
-        <v>1.893</v>
+        <v>1.91</v>
       </c>
       <c r="D219" t="n">
-        <v>1.893</v>
+        <v>1.91</v>
       </c>
       <c r="E219" t="n">
-        <v>1.893</v>
+        <v>1.908</v>
       </c>
       <c r="F219" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="G219" t="n">
-        <v>1.898083333333336</v>
+        <v>1.89846666666667</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8463,7 +8129,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -8494,7 +8160,7 @@
         <v>60000</v>
       </c>
       <c r="G220" t="n">
-        <v>1.89791666666667</v>
+        <v>1.898083333333336</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8504,7 +8170,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -8532,10 +8198,10 @@
         <v>1.893</v>
       </c>
       <c r="F221" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G221" t="n">
-        <v>1.897750000000003</v>
+        <v>1.89791666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8545,7 +8211,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -8573,7 +8239,7 @@
         <v>1.893</v>
       </c>
       <c r="F222" t="n">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="G222" t="n">
         <v>1.897750000000003</v>
@@ -8586,7 +8252,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -8614,10 +8280,10 @@
         <v>1.893</v>
       </c>
       <c r="F223" t="n">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="G223" t="n">
-        <v>1.897583333333336</v>
+        <v>1.897750000000003</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8627,7 +8293,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -8655,10 +8321,10 @@
         <v>1.893</v>
       </c>
       <c r="F224" t="n">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="G224" t="n">
-        <v>1.897416666666669</v>
+        <v>1.897583333333336</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8668,7 +8334,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -8696,10 +8362,10 @@
         <v>1.893</v>
       </c>
       <c r="F225" t="n">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="G225" t="n">
-        <v>1.897016666666669</v>
+        <v>1.897416666666669</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8709,7 +8375,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -8737,10 +8403,10 @@
         <v>1.893</v>
       </c>
       <c r="F226" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="G226" t="n">
-        <v>1.89661666666667</v>
+        <v>1.897016666666669</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8750,7 +8416,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -8778,10 +8444,10 @@
         <v>1.893</v>
       </c>
       <c r="F227" t="n">
-        <v>295000</v>
+        <v>45000</v>
       </c>
       <c r="G227" t="n">
-        <v>1.89651666666667</v>
+        <v>1.89661666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8791,7 +8457,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -8819,10 +8485,10 @@
         <v>1.893</v>
       </c>
       <c r="F228" t="n">
-        <v>60000</v>
+        <v>295000</v>
       </c>
       <c r="G228" t="n">
-        <v>1.89641666666667</v>
+        <v>1.89651666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8832,7 +8498,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -8860,10 +8526,10 @@
         <v>1.893</v>
       </c>
       <c r="F229" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G229" t="n">
-        <v>1.89631666666667</v>
+        <v>1.89641666666667</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8873,7 +8539,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -8889,13 +8555,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="C230" t="n">
         <v>1.893</v>
       </c>
       <c r="D230" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="E230" t="n">
         <v>1.893</v>
@@ -8904,7 +8570,7 @@
         <v>50000</v>
       </c>
       <c r="G230" t="n">
-        <v>1.89621666666667</v>
+        <v>1.89631666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8914,7 +8580,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -8930,13 +8596,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1.893</v>
+        <v>1.894</v>
       </c>
       <c r="C231" t="n">
         <v>1.893</v>
       </c>
       <c r="D231" t="n">
-        <v>1.893</v>
+        <v>1.894</v>
       </c>
       <c r="E231" t="n">
         <v>1.893</v>
@@ -8945,7 +8611,7 @@
         <v>50000</v>
       </c>
       <c r="G231" t="n">
-        <v>1.896100000000003</v>
+        <v>1.89621666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8955,7 +8621,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -8983,10 +8649,10 @@
         <v>1.893</v>
       </c>
       <c r="F232" t="n">
-        <v>122667.5679</v>
+        <v>50000</v>
       </c>
       <c r="G232" t="n">
-        <v>1.895733333333336</v>
+        <v>1.896100000000003</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8996,7 +8662,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -9024,10 +8690,10 @@
         <v>1.893</v>
       </c>
       <c r="F233" t="n">
-        <v>55000</v>
+        <v>122667.5679</v>
       </c>
       <c r="G233" t="n">
-        <v>1.895366666666669</v>
+        <v>1.895733333333336</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9037,7 +8703,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -9068,7 +8734,7 @@
         <v>55000</v>
       </c>
       <c r="G234" t="n">
-        <v>1.895000000000002</v>
+        <v>1.895366666666669</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9078,7 +8744,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -9106,7 +8772,7 @@
         <v>1.893</v>
       </c>
       <c r="F235" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="G235" t="n">
         <v>1.895000000000002</v>
@@ -9119,7 +8785,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -9147,10 +8813,10 @@
         <v>1.893</v>
       </c>
       <c r="F236" t="n">
-        <v>95000</v>
+        <v>45000</v>
       </c>
       <c r="G236" t="n">
-        <v>1.894883333333336</v>
+        <v>1.895000000000002</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9160,7 +8826,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -9188,10 +8854,10 @@
         <v>1.893</v>
       </c>
       <c r="F237" t="n">
-        <v>50000</v>
+        <v>95000</v>
       </c>
       <c r="G237" t="n">
-        <v>1.894933333333336</v>
+        <v>1.894883333333336</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9201,7 +8867,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -9232,7 +8898,7 @@
         <v>50000</v>
       </c>
       <c r="G238" t="n">
-        <v>1.894983333333336</v>
+        <v>1.894933333333336</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9242,7 +8908,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -9270,10 +8936,10 @@
         <v>1.893</v>
       </c>
       <c r="F239" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="G239" t="n">
-        <v>1.895033333333336</v>
+        <v>1.894983333333336</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9283,7 +8949,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -9311,10 +8977,10 @@
         <v>1.893</v>
       </c>
       <c r="F240" t="n">
-        <v>18009.6154</v>
+        <v>45000</v>
       </c>
       <c r="G240" t="n">
-        <v>1.895100000000002</v>
+        <v>1.895033333333336</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9324,7 +8990,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -9343,19 +9009,19 @@
         <v>1.893</v>
       </c>
       <c r="C241" t="n">
-        <v>1.89</v>
+        <v>1.893</v>
       </c>
       <c r="D241" t="n">
         <v>1.893</v>
       </c>
       <c r="E241" t="n">
-        <v>1.89</v>
+        <v>1.893</v>
       </c>
       <c r="F241" t="n">
-        <v>105000</v>
+        <v>18009.6154</v>
       </c>
       <c r="G241" t="n">
-        <v>1.895116666666669</v>
+        <v>1.895100000000002</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9365,7 +9031,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -9381,19 +9047,19 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.89</v>
+        <v>1.893</v>
       </c>
       <c r="C242" t="n">
         <v>1.89</v>
       </c>
       <c r="D242" t="n">
-        <v>1.89</v>
+        <v>1.893</v>
       </c>
       <c r="E242" t="n">
         <v>1.89</v>
       </c>
       <c r="F242" t="n">
-        <v>29223.9089</v>
+        <v>105000</v>
       </c>
       <c r="G242" t="n">
         <v>1.895116666666669</v>
@@ -9406,7 +9072,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -9434,7 +9100,7 @@
         <v>1.89</v>
       </c>
       <c r="F243" t="n">
-        <v>23855.8328</v>
+        <v>29223.9089</v>
       </c>
       <c r="G243" t="n">
         <v>1.895116666666669</v>
@@ -9447,7 +9113,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -9475,10 +9141,10 @@
         <v>1.89</v>
       </c>
       <c r="F244" t="n">
-        <v>116289.5869</v>
+        <v>23855.8328</v>
       </c>
       <c r="G244" t="n">
-        <v>1.894950000000002</v>
+        <v>1.895116666666669</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9488,7 +9154,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -9516,10 +9182,10 @@
         <v>1.89</v>
       </c>
       <c r="F245" t="n">
-        <v>21181.6188</v>
+        <v>116289.5869</v>
       </c>
       <c r="G245" t="n">
-        <v>1.894750000000002</v>
+        <v>1.894950000000002</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9529,7 +9195,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -9557,10 +9223,10 @@
         <v>1.89</v>
       </c>
       <c r="F246" t="n">
-        <v>65000</v>
+        <v>21181.6188</v>
       </c>
       <c r="G246" t="n">
-        <v>1.894733333333336</v>
+        <v>1.894750000000002</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9570,7 +9236,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -9598,10 +9264,10 @@
         <v>1.89</v>
       </c>
       <c r="F247" t="n">
-        <v>15977.8076</v>
+        <v>65000</v>
       </c>
       <c r="G247" t="n">
-        <v>1.894533333333336</v>
+        <v>1.894733333333336</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9611,7 +9277,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -9639,10 +9305,10 @@
         <v>1.89</v>
       </c>
       <c r="F248" t="n">
-        <v>101410.5827</v>
+        <v>15977.8076</v>
       </c>
       <c r="G248" t="n">
-        <v>1.894516666666669</v>
+        <v>1.894533333333336</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9652,7 +9318,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -9680,10 +9346,10 @@
         <v>1.89</v>
       </c>
       <c r="F249" t="n">
-        <v>891.3043</v>
+        <v>101410.5827</v>
       </c>
       <c r="G249" t="n">
-        <v>1.894500000000002</v>
+        <v>1.894516666666669</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9693,7 +9359,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -9721,10 +9387,10 @@
         <v>1.89</v>
       </c>
       <c r="F250" t="n">
-        <v>129991.8257</v>
+        <v>891.3043</v>
       </c>
       <c r="G250" t="n">
-        <v>1.894450000000002</v>
+        <v>1.894500000000002</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9734,7 +9400,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -9750,22 +9416,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1.887</v>
+        <v>1.89</v>
       </c>
       <c r="C251" t="n">
-        <v>1.886</v>
+        <v>1.89</v>
       </c>
       <c r="D251" t="n">
-        <v>1.887</v>
+        <v>1.89</v>
       </c>
       <c r="E251" t="n">
-        <v>1.886</v>
+        <v>1.89</v>
       </c>
       <c r="F251" t="n">
-        <v>221366.8554</v>
+        <v>129991.8257</v>
       </c>
       <c r="G251" t="n">
-        <v>1.894316666666669</v>
+        <v>1.894450000000002</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9775,7 +9441,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -9791,22 +9457,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="C252" t="n">
         <v>1.886</v>
       </c>
       <c r="D252" t="n">
-        <v>1.886</v>
+        <v>1.887</v>
       </c>
       <c r="E252" t="n">
         <v>1.886</v>
       </c>
       <c r="F252" t="n">
-        <v>186572.3595</v>
+        <v>221366.8554</v>
       </c>
       <c r="G252" t="n">
-        <v>1.894183333333335</v>
+        <v>1.894316666666669</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9816,7 +9482,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -9844,10 +9510,10 @@
         <v>1.886</v>
       </c>
       <c r="F253" t="n">
-        <v>100252.4643</v>
+        <v>186572.3595</v>
       </c>
       <c r="G253" t="n">
-        <v>1.893916666666668</v>
+        <v>1.894183333333335</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9857,7 +9523,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -9885,10 +9551,10 @@
         <v>1.886</v>
       </c>
       <c r="F254" t="n">
-        <v>79559.8444</v>
+        <v>100252.4643</v>
       </c>
       <c r="G254" t="n">
-        <v>1.893633333333335</v>
+        <v>1.893916666666668</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9898,7 +9564,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -9926,10 +9592,10 @@
         <v>1.886</v>
       </c>
       <c r="F255" t="n">
-        <v>22449.2411</v>
+        <v>79559.8444</v>
       </c>
       <c r="G255" t="n">
-        <v>1.893366666666668</v>
+        <v>1.893633333333335</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9939,7 +9605,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -9967,10 +9633,10 @@
         <v>1.886</v>
       </c>
       <c r="F256" t="n">
-        <v>17093.6688</v>
+        <v>22449.2411</v>
       </c>
       <c r="G256" t="n">
-        <v>1.893133333333335</v>
+        <v>1.893366666666668</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9980,7 +9646,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>1.889</v>
+        <v>1.894</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -9991,6 +9657,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F257" t="n">
+        <v>17093.6688</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1.893133333333335</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-14 BackTest HYC.xlsx
+++ b/BackTest/2020-01-14 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N325"/>
+  <dimension ref="A1:M325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4807,15 @@
         <v>6464547.507392443</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4840,15 @@
         <v>6474252.594592443</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5352,18 +4939,15 @@
         <v>6800227.606492443</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,18 +4972,15 @@
         <v>10302874.4939</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5424,18 +5005,15 @@
         <v>10516042.4966</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5460,18 +5038,15 @@
         <v>15065187.3666</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5496,18 +5071,15 @@
         <v>17189643.8938</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5532,18 +5104,15 @@
         <v>12098080.7826</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5568,18 +5137,15 @@
         <v>16068028.6493</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,18 +5170,15 @@
         <v>15969371.8682</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5640,18 +5203,15 @@
         <v>15362002.7033</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,18 +5236,15 @@
         <v>15362246.6058</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5712,18 +5269,15 @@
         <v>14662987.658</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +5302,15 @@
         <v>17348745.8962</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5784,18 +5335,15 @@
         <v>16813677.3901</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,18 +5368,15 @@
         <v>17422573.2339</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5856,18 +5401,15 @@
         <v>17481887.8067</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5892,18 +5434,15 @@
         <v>20132144.2718</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5928,18 +5467,15 @@
         <v>19919533.4543</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6036,18 +5566,15 @@
         <v>17157499.63550001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6072,18 +5599,15 @@
         <v>17228322.77210001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6108,18 +5632,15 @@
         <v>16925952.1233</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6144,18 +5665,15 @@
         <v>16399641.3944</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +7284,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7946,16 +7317,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7982,16 +7350,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +7383,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +7416,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +7449,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7482,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7515,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7548,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7581,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7614,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7647,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7680,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7713,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7746,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7779,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7812,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7845,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7878,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7911,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7944,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +7977,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8010,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8043,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8076,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8109,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8142,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8175,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8208,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8241,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8274,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8307,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +8340,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8373,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8406,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8439,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8472,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8505,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9276,18 +8536,19 @@
         <v>11323722.1622996</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
+        <v>1.902</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1.902</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8575,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9348,18 +8612,23 @@
         <v>11383722.1622996</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+        <v>1.891</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9384,22 +8653,23 @@
         <v>11433722.1622996</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1.893</v>
       </c>
       <c r="J250" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K250" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+        <v>1.902</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9424,26 +8694,23 @@
         <v>11433722.1622996</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>1.894</v>
       </c>
       <c r="J251" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="K251" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="L251" t="inlineStr">
+        <v>1.902</v>
+      </c>
+      <c r="K251" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9468,26 +8735,23 @@
         <v>11538988.3912996</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1.894</v>
       </c>
       <c r="J252" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="K252" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="L252" t="inlineStr">
+        <v>1.902</v>
+      </c>
+      <c r="K252" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9512,22 +8776,23 @@
         <v>11598565.8707996</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1.902</v>
       </c>
       <c r="J253" t="n">
         <v>1.902</v>
       </c>
-      <c r="K253" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9552,26 +8817,23 @@
         <v>11531169.0407996</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>1.903</v>
       </c>
       <c r="J254" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="K254" t="n">
         <v>1.902</v>
       </c>
-      <c r="L254" t="inlineStr">
+      <c r="K254" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9596,24 +8858,23 @@
         <v>11499144.1293996</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
         <v>1.902</v>
       </c>
-      <c r="L255" t="inlineStr">
+      <c r="J255" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9638,24 +8899,23 @@
         <v>11499144.1293996</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J256" t="n">
         <v>1.902</v>
       </c>
-      <c r="L256" t="inlineStr">
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9680,24 +8940,23 @@
         <v>11449144.1293996</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J257" t="n">
         <v>1.902</v>
       </c>
-      <c r="L257" t="inlineStr">
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9722,24 +8981,23 @@
         <v>11449144.1293996</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="J258" t="n">
         <v>1.902</v>
       </c>
-      <c r="L258" t="inlineStr">
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9764,24 +9022,23 @@
         <v>11449407.1418996</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="J259" t="n">
         <v>1.902</v>
       </c>
-      <c r="L259" t="inlineStr">
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9806,24 +9063,23 @@
         <v>11387463.5910996</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="J260" t="n">
         <v>1.902</v>
       </c>
-      <c r="L260" t="inlineStr">
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9848,24 +9104,23 @@
         <v>11387463.5910996</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="J261" t="n">
         <v>1.902</v>
       </c>
-      <c r="L261" t="inlineStr">
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9890,24 +9145,23 @@
         <v>11704497.5039081</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="J262" t="n">
         <v>1.902</v>
       </c>
-      <c r="L262" t="inlineStr">
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9934,22 +9188,19 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
         <v>1.902</v>
       </c>
-      <c r="L263" t="inlineStr">
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9976,22 +9227,19 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
         <v>1.902</v>
       </c>
-      <c r="L264" t="inlineStr">
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10018,22 +9266,19 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
         <v>1.902</v>
       </c>
-      <c r="L265" t="inlineStr">
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10060,22 +9305,19 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
         <v>1.902</v>
       </c>
-      <c r="L266" t="inlineStr">
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10102,22 +9344,19 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
         <v>1.902</v>
       </c>
-      <c r="L267" t="inlineStr">
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10144,22 +9383,19 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
         <v>1.902</v>
       </c>
-      <c r="L268" t="inlineStr">
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10186,22 +9422,19 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
         <v>1.902</v>
       </c>
-      <c r="L269" t="inlineStr">
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10228,22 +9461,19 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
         <v>1.902</v>
       </c>
-      <c r="L270" t="inlineStr">
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10270,22 +9500,19 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
         <v>1.902</v>
       </c>
-      <c r="L271" t="inlineStr">
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10312,22 +9539,19 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
         <v>1.902</v>
       </c>
-      <c r="L272" t="inlineStr">
+      <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10352,24 +9576,23 @@
         <v>11418832.4203081</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="J273" t="n">
         <v>1.902</v>
       </c>
-      <c r="L273" t="inlineStr">
+      <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10394,24 +9617,23 @@
         <v>11418832.4203081</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="J274" t="n">
         <v>1.902</v>
       </c>
-      <c r="L274" t="inlineStr">
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10436,24 +9658,23 @@
         <v>11418832.4203081</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="J275" t="n">
         <v>1.902</v>
       </c>
-      <c r="L275" t="inlineStr">
+      <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10478,24 +9699,23 @@
         <v>11418832.4203081</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="J276" t="n">
         <v>1.902</v>
       </c>
-      <c r="L276" t="inlineStr">
+      <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10520,24 +9740,23 @@
         <v>11433832.4203081</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="J277" t="n">
         <v>1.902</v>
       </c>
-      <c r="L277" t="inlineStr">
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10562,24 +9781,23 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J278" t="n">
         <v>1.902</v>
       </c>
-      <c r="L278" t="inlineStr">
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10604,24 +9822,23 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="J279" t="n">
         <v>1.902</v>
       </c>
-      <c r="L279" t="inlineStr">
+      <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10648,22 +9865,19 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
         <v>1.902</v>
       </c>
-      <c r="L280" t="inlineStr">
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10690,22 +9904,19 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
         <v>1.902</v>
       </c>
-      <c r="L281" t="inlineStr">
+      <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10732,22 +9943,19 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
         <v>1.902</v>
       </c>
-      <c r="L282" t="inlineStr">
+      <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10772,26 +9980,21 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K283" t="n">
         <v>1.902</v>
       </c>
-      <c r="L283" t="inlineStr">
+      <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10816,26 +10019,23 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>1.893</v>
       </c>
       <c r="J284" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K284" t="n">
         <v>1.902</v>
       </c>
-      <c r="L284" t="inlineStr">
+      <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10860,26 +10060,23 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>1.893</v>
       </c>
       <c r="J285" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K285" t="n">
         <v>1.902</v>
       </c>
-      <c r="L285" t="inlineStr">
+      <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10904,26 +10101,23 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>1.893</v>
       </c>
       <c r="J286" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K286" t="n">
         <v>1.902</v>
       </c>
-      <c r="L286" t="inlineStr">
+      <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10948,26 +10142,23 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>1.893</v>
       </c>
       <c r="J287" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K287" t="n">
         <v>1.902</v>
       </c>
-      <c r="L287" t="inlineStr">
+      <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10992,26 +10183,23 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>1.893</v>
       </c>
       <c r="J288" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K288" t="n">
         <v>1.902</v>
       </c>
-      <c r="L288" t="inlineStr">
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11036,26 +10224,23 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>1.893</v>
       </c>
       <c r="J289" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K289" t="n">
         <v>1.902</v>
       </c>
-      <c r="L289" t="inlineStr">
+      <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11080,26 +10265,23 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>1.893</v>
       </c>
       <c r="J290" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K290" t="n">
         <v>1.902</v>
       </c>
-      <c r="L290" t="inlineStr">
+      <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11124,26 +10306,23 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>1.893</v>
       </c>
       <c r="J291" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K291" t="n">
         <v>1.902</v>
       </c>
-      <c r="L291" t="inlineStr">
+      <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11168,26 +10347,23 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>1.893</v>
       </c>
       <c r="J292" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K292" t="n">
         <v>1.902</v>
       </c>
-      <c r="L292" t="inlineStr">
+      <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11212,26 +10388,23 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>1.893</v>
       </c>
       <c r="J293" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K293" t="n">
         <v>1.902</v>
       </c>
-      <c r="L293" t="inlineStr">
+      <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11256,26 +10429,23 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>1.893</v>
       </c>
       <c r="J294" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K294" t="n">
         <v>1.902</v>
       </c>
-      <c r="L294" t="inlineStr">
+      <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11300,26 +10470,21 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K295" t="n">
         <v>1.902</v>
       </c>
-      <c r="L295" t="inlineStr">
+      <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11344,26 +10509,23 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>1.893</v>
       </c>
       <c r="J296" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K296" t="n">
         <v>1.902</v>
       </c>
-      <c r="L296" t="inlineStr">
+      <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11388,26 +10550,21 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K297" t="n">
         <v>1.902</v>
       </c>
-      <c r="L297" t="inlineStr">
+      <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11432,26 +10589,21 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K298" t="n">
         <v>1.902</v>
       </c>
-      <c r="L298" t="inlineStr">
+      <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11476,26 +10628,21 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K299" t="n">
         <v>1.902</v>
       </c>
-      <c r="L299" t="inlineStr">
+      <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11520,26 +10667,21 @@
         <v>11268832.4203081</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K300" t="n">
         <v>1.902</v>
       </c>
-      <c r="L300" t="inlineStr">
+      <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11564,26 +10706,21 @@
         <v>11268832.4203081</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K301" t="n">
         <v>1.902</v>
       </c>
-      <c r="L301" t="inlineStr">
+      <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11608,26 +10745,21 @@
         <v>11268832.4203081</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K302" t="n">
         <v>1.902</v>
       </c>
-      <c r="L302" t="inlineStr">
+      <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11652,26 +10784,21 @@
         <v>11268832.4203081</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K303" t="n">
         <v>1.902</v>
       </c>
-      <c r="L303" t="inlineStr">
+      <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11696,26 +10823,23 @@
         <v>11268832.4203081</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="J304" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K304" t="n">
         <v>1.902</v>
       </c>
-      <c r="L304" t="inlineStr">
+      <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11740,26 +10864,23 @@
         <v>11268832.4203081</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="J305" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K305" t="n">
         <v>1.902</v>
       </c>
-      <c r="L305" t="inlineStr">
+      <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11784,26 +10905,21 @@
         <v>11268832.4203081</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K306" t="n">
         <v>1.902</v>
       </c>
-      <c r="L306" t="inlineStr">
+      <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11828,26 +10944,21 @@
         <v>11268832.4203081</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K307" t="n">
         <v>1.902</v>
       </c>
-      <c r="L307" t="inlineStr">
+      <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11872,26 +10983,21 @@
         <v>11268832.4203081</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K308" t="n">
         <v>1.902</v>
       </c>
-      <c r="L308" t="inlineStr">
+      <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11916,26 +11022,21 @@
         <v>11268832.4203081</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K309" t="n">
         <v>1.902</v>
       </c>
-      <c r="L309" t="inlineStr">
+      <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11960,26 +11061,21 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K310" t="n">
         <v>1.902</v>
       </c>
-      <c r="L310" t="inlineStr">
+      <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12004,26 +11100,21 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K311" t="n">
         <v>1.902</v>
       </c>
-      <c r="L311" t="inlineStr">
+      <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12048,26 +11139,21 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K312" t="n">
         <v>1.902</v>
       </c>
-      <c r="L312" t="inlineStr">
+      <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12092,26 +11178,21 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K313" t="n">
         <v>1.902</v>
       </c>
-      <c r="L313" t="inlineStr">
+      <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12136,26 +11217,21 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K314" t="n">
         <v>1.902</v>
       </c>
-      <c r="L314" t="inlineStr">
+      <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12180,26 +11256,21 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K315" t="n">
         <v>1.902</v>
       </c>
-      <c r="L315" t="inlineStr">
+      <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12224,26 +11295,21 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K316" t="n">
         <v>1.902</v>
       </c>
-      <c r="L316" t="inlineStr">
+      <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12268,26 +11334,21 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K317" t="n">
         <v>1.902</v>
       </c>
-      <c r="L317" t="inlineStr">
+      <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12312,26 +11373,21 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K318" t="n">
         <v>1.902</v>
       </c>
-      <c r="L318" t="inlineStr">
+      <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12356,26 +11412,21 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K319" t="n">
         <v>1.902</v>
       </c>
-      <c r="L319" t="inlineStr">
+      <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12400,26 +11451,21 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K320" t="n">
         <v>1.902</v>
       </c>
-      <c r="L320" t="inlineStr">
+      <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12444,26 +11490,21 @@
         <v>12080679.8663081</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K321" t="n">
         <v>1.902</v>
       </c>
-      <c r="L321" t="inlineStr">
+      <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12488,26 +11529,21 @@
         <v>12038964.7630081</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K322" t="n">
         <v>1.902</v>
       </c>
-      <c r="L322" t="inlineStr">
+      <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12532,26 +11568,21 @@
         <v>12038964.7630081</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K323" t="n">
         <v>1.902</v>
       </c>
-      <c r="L323" t="inlineStr">
+      <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12576,26 +11607,21 @@
         <v>12038964.7630081</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K324" t="n">
         <v>1.902</v>
       </c>
-      <c r="L324" t="inlineStr">
+      <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12620,28 +11646,23 @@
         <v>12076590.4315081</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K325" t="n">
         <v>1.902</v>
       </c>
-      <c r="L325" t="inlineStr">
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest HYC.xlsx
+++ b/BackTest/2020-01-14 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4807,7 +4807,7 @@
         <v>6464547.507392443</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>6474252.594592443</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>6800227.606492443</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>10302874.4939</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>10516042.4966</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>15065187.3666</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>17189643.8938</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>12098080.7826</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>16068028.6493</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>15969371.8682</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>15362002.7033</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>15362246.6058</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>14662987.658</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>17348745.8962</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>16813677.3901</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>17422573.2339</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>17481887.8067</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>20132144.2718</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>19919533.4543</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>19956796.70300001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>19858882.60750001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>17157499.63550001</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>17228322.77210001</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>16925952.1233</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>16399641.3944</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>16362967.8144</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>15364311.8883</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>15364311.8883</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>15427446.2085</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>15411709.4328</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>15228617.6178</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>15100349.3726</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>15126409.3726</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>14780664.64280001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>15022441.3589996</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>14913457.6190996</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>14913701.6190996</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>14873071.1858996</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>14844205.3729996</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>14115761.1297996</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>14115761.1297996</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>14126565.3204996</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>13105689.6138996</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>13153258.1452996</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>13132143.0694996</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>13093379.8738996</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>13093636.8738996</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>12850478.1958996</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>12851519.1556996</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>12365159.9034996</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>11774633.9498996</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>9954109.927899599</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>9954109.927899599</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -8536,14 +8536,10 @@
         <v>11323722.1622996</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="J247" t="n">
-        <v>1.902</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
@@ -8576,2502 +8572,2146 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F249" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G249" t="n">
+        <v>11383722.1622996</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F250" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G250" t="n">
+        <v>11433722.1622996</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F251" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G251" t="n">
+        <v>11433722.1622996</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
         <v>1.902</v>
       </c>
-      <c r="K248" t="inlineStr">
+      <c r="C252" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F252" t="n">
+        <v>105266.229</v>
+      </c>
+      <c r="G252" t="n">
+        <v>11538988.3912996</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="F253" t="n">
+        <v>59577.4795</v>
+      </c>
+      <c r="G253" t="n">
+        <v>11598565.8707996</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F254" t="n">
+        <v>67396.83</v>
+      </c>
+      <c r="G254" t="n">
+        <v>11531169.0407996</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F255" t="n">
+        <v>32024.9114</v>
+      </c>
+      <c r="G255" t="n">
+        <v>11499144.1293996</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F256" t="n">
+        <v>122667.5679</v>
+      </c>
+      <c r="G256" t="n">
+        <v>11499144.1293996</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F257" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G257" t="n">
+        <v>11449144.1293996</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F258" t="n">
+        <v>178506.3213</v>
+      </c>
+      <c r="G258" t="n">
+        <v>11449144.1293996</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F259" t="n">
+        <v>263.0125</v>
+      </c>
+      <c r="G259" t="n">
+        <v>11449407.1418996</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F260" t="n">
+        <v>61943.5508</v>
+      </c>
+      <c r="G260" t="n">
+        <v>11387463.5910996</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F261" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G261" t="n">
+        <v>11387463.5910996</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="F262" t="n">
+        <v>317033.912808502</v>
+      </c>
+      <c r="G262" t="n">
+        <v>11704497.5039081</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F263" t="n">
+        <v>70882.9139</v>
+      </c>
+      <c r="G263" t="n">
+        <v>11633614.5900081</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F264" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G264" t="n">
+        <v>11633614.5900081</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="F265" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G265" t="n">
+        <v>11688614.5900081</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="F266" t="n">
+        <v>65000</v>
+      </c>
+      <c r="G266" t="n">
+        <v>11688614.5900081</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="F267" t="n">
+        <v>55259</v>
+      </c>
+      <c r="G267" t="n">
+        <v>11688614.5900081</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F268" t="n">
+        <v>70000</v>
+      </c>
+      <c r="G268" t="n">
+        <v>11618614.5900081</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F269" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G269" t="n">
+        <v>11618614.5900081</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F270" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G270" t="n">
+        <v>11618614.5900081</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F271" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G271" t="n">
+        <v>11618614.5900081</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F272" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G272" t="n">
+        <v>11618614.5900081</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F273" t="n">
+        <v>199782.1697</v>
+      </c>
+      <c r="G273" t="n">
+        <v>11418832.4203081</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F274" t="n">
+        <v>130000</v>
+      </c>
+      <c r="G274" t="n">
+        <v>11418832.4203081</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F275" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G275" t="n">
+        <v>11418832.4203081</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F276" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G276" t="n">
+        <v>11418832.4203081</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F277" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G277" t="n">
+        <v>11433832.4203081</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F278" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G278" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F279" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G279" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F280" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G280" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F281" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G281" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F282" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G282" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F283" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G283" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F284" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G284" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F285" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G285" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F286" t="n">
+        <v>295000</v>
+      </c>
+      <c r="G286" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F287" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G287" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F288" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G288" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F289" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G289" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F290" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G290" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="J290" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F291" t="n">
+        <v>122667.5679</v>
+      </c>
+      <c r="G291" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="J291" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F292" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G292" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F293" t="n">
+        <v>55000</v>
+      </c>
+      <c r="G293" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F294" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G294" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="J294" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F295" t="n">
+        <v>95000</v>
+      </c>
+      <c r="G295" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F296" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G296" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F297" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G297" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F298" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G298" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F299" t="n">
+        <v>18009.6154</v>
+      </c>
+      <c r="G299" t="n">
+        <v>11373832.4203081</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F300" t="n">
+        <v>105000</v>
+      </c>
+      <c r="G300" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F301" t="n">
+        <v>29223.9089</v>
+      </c>
+      <c r="G301" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F302" t="n">
+        <v>23855.8328</v>
+      </c>
+      <c r="G302" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J302" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F303" t="n">
+        <v>116289.5869</v>
+      </c>
+      <c r="G303" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F304" t="n">
+        <v>21181.6188</v>
+      </c>
+      <c r="G304" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H304" t="n">
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J304" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F305" t="n">
+        <v>65000</v>
+      </c>
+      <c r="G305" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H305" t="n">
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J305" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F306" t="n">
+        <v>15977.8076</v>
+      </c>
+      <c r="G306" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H306" t="n">
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J306" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F307" t="n">
+        <v>101410.5827</v>
+      </c>
+      <c r="G307" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J307" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F308" t="n">
+        <v>891.3043</v>
+      </c>
+      <c r="G308" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J308" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F309" t="n">
+        <v>129991.8257</v>
+      </c>
+      <c r="G309" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J309" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F310" t="n">
+        <v>221366.8554</v>
+      </c>
+      <c r="G310" t="n">
+        <v>11047465.5649081</v>
+      </c>
+      <c r="H310" t="n">
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J310" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K310" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C249" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D249" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E249" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F249" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G249" t="n">
-        <v>11383722.1622996</v>
-      </c>
-      <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="J249" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C250" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D250" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E250" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F250" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G250" t="n">
-        <v>11433722.1622996</v>
-      </c>
-      <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J250" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C251" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D251" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E251" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F251" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G251" t="n">
-        <v>11433722.1622996</v>
-      </c>
-      <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J251" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C252" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D252" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E252" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F252" t="n">
-        <v>105266.229</v>
-      </c>
-      <c r="G252" t="n">
-        <v>11538988.3912996</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J252" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="C253" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="D253" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E253" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="F253" t="n">
-        <v>59577.4795</v>
-      </c>
-      <c r="G253" t="n">
-        <v>11598565.8707996</v>
-      </c>
-      <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="J253" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="C254" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D254" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="E254" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F254" t="n">
-        <v>67396.83</v>
-      </c>
-      <c r="G254" t="n">
-        <v>11531169.0407996</v>
-      </c>
-      <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1.903</v>
-      </c>
-      <c r="J254" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C255" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D255" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E255" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F255" t="n">
-        <v>32024.9114</v>
-      </c>
-      <c r="G255" t="n">
-        <v>11499144.1293996</v>
-      </c>
-      <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="J255" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C256" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D256" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E256" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F256" t="n">
-        <v>122667.5679</v>
-      </c>
-      <c r="G256" t="n">
-        <v>11499144.1293996</v>
-      </c>
-      <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J256" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C257" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D257" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E257" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F257" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G257" t="n">
-        <v>11449144.1293996</v>
-      </c>
-      <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J257" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C258" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D258" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E258" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F258" t="n">
-        <v>178506.3213</v>
-      </c>
-      <c r="G258" t="n">
-        <v>11449144.1293996</v>
-      </c>
-      <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J258" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="C259" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="D259" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="E259" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="F259" t="n">
-        <v>263.0125</v>
-      </c>
-      <c r="G259" t="n">
-        <v>11449407.1418996</v>
-      </c>
-      <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J259" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C260" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D260" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E260" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F260" t="n">
-        <v>61943.5508</v>
-      </c>
-      <c r="G260" t="n">
-        <v>11387463.5910996</v>
-      </c>
-      <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="J260" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C261" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D261" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E261" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F261" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G261" t="n">
-        <v>11387463.5910996</v>
-      </c>
-      <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J261" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="C262" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="D262" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="E262" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="F262" t="n">
-        <v>317033.912808502</v>
-      </c>
-      <c r="G262" t="n">
-        <v>11704497.5039081</v>
-      </c>
-      <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J262" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C263" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D263" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E263" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F263" t="n">
-        <v>70882.9139</v>
-      </c>
-      <c r="G263" t="n">
-        <v>11633614.5900081</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C264" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D264" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E264" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F264" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G264" t="n">
-        <v>11633614.5900081</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="C265" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="D265" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="E265" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="F265" t="n">
-        <v>55000</v>
-      </c>
-      <c r="G265" t="n">
-        <v>11688614.5900081</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="C266" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="D266" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="E266" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="F266" t="n">
-        <v>65000</v>
-      </c>
-      <c r="G266" t="n">
-        <v>11688614.5900081</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C267" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="D267" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E267" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="F267" t="n">
-        <v>55259</v>
-      </c>
-      <c r="G267" t="n">
-        <v>11688614.5900081</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="C268" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D268" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="E268" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F268" t="n">
-        <v>70000</v>
-      </c>
-      <c r="G268" t="n">
-        <v>11618614.5900081</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C269" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D269" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E269" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F269" t="n">
-        <v>55000</v>
-      </c>
-      <c r="G269" t="n">
-        <v>11618614.5900081</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C270" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D270" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E270" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F270" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G270" t="n">
-        <v>11618614.5900081</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C271" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D271" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E271" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F271" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G271" t="n">
-        <v>11618614.5900081</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C272" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="D272" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E272" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="F272" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G272" t="n">
-        <v>11618614.5900081</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C273" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D273" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E273" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F273" t="n">
-        <v>199782.1697</v>
-      </c>
-      <c r="G273" t="n">
-        <v>11418832.4203081</v>
-      </c>
-      <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="J273" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C274" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D274" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E274" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F274" t="n">
-        <v>130000</v>
-      </c>
-      <c r="G274" t="n">
-        <v>11418832.4203081</v>
-      </c>
-      <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J274" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C275" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D275" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E275" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F275" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G275" t="n">
-        <v>11418832.4203081</v>
-      </c>
-      <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J275" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C276" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D276" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E276" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F276" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G276" t="n">
-        <v>11418832.4203081</v>
-      </c>
-      <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J276" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="C277" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D277" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E277" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="F277" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G277" t="n">
-        <v>11433832.4203081</v>
-      </c>
-      <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J277" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C278" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D278" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E278" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F278" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G278" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J278" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C279" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D279" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E279" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F279" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G279" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J279" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C280" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D280" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E280" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F280" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G280" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C281" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D281" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E281" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F281" t="n">
-        <v>55000</v>
-      </c>
-      <c r="G281" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C282" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D282" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E282" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F282" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G282" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C283" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D283" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E283" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F283" t="n">
-        <v>55000</v>
-      </c>
-      <c r="G283" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C284" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D284" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E284" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F284" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G284" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J284" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C285" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D285" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E285" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F285" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G285" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J285" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C286" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D286" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E286" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F286" t="n">
-        <v>295000</v>
-      </c>
-      <c r="G286" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J286" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C287" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D287" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E287" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F287" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G287" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J287" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C288" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D288" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E288" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F288" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G288" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J288" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="C289" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D289" t="n">
-        <v>1.894</v>
-      </c>
-      <c r="E289" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F289" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G289" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J289" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C290" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D290" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E290" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F290" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G290" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J290" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C291" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D291" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E291" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F291" t="n">
-        <v>122667.5679</v>
-      </c>
-      <c r="G291" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J291" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C292" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D292" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E292" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F292" t="n">
-        <v>55000</v>
-      </c>
-      <c r="G292" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J292" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C293" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D293" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E293" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F293" t="n">
-        <v>55000</v>
-      </c>
-      <c r="G293" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J293" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C294" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D294" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E294" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F294" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G294" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J294" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C295" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D295" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E295" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F295" t="n">
-        <v>95000</v>
-      </c>
-      <c r="G295" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C296" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D296" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E296" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F296" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G296" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J296" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C297" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D297" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E297" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F297" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G297" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C298" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D298" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E298" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F298" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G298" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C299" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="D299" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E299" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="F299" t="n">
-        <v>18009.6154</v>
-      </c>
-      <c r="G299" t="n">
-        <v>11373832.4203081</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="C300" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D300" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="E300" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F300" t="n">
-        <v>105000</v>
-      </c>
-      <c r="G300" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C301" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D301" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E301" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F301" t="n">
-        <v>29223.9089</v>
-      </c>
-      <c r="G301" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C302" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D302" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E302" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F302" t="n">
-        <v>23855.8328</v>
-      </c>
-      <c r="G302" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C303" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D303" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E303" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F303" t="n">
-        <v>116289.5869</v>
-      </c>
-      <c r="G303" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C304" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D304" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E304" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F304" t="n">
-        <v>21181.6188</v>
-      </c>
-      <c r="G304" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J304" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C305" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D305" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E305" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F305" t="n">
-        <v>65000</v>
-      </c>
-      <c r="G305" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J305" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C306" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D306" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E306" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F306" t="n">
-        <v>15977.8076</v>
-      </c>
-      <c r="G306" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C307" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D307" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E307" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F307" t="n">
-        <v>101410.5827</v>
-      </c>
-      <c r="G307" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C308" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D308" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E308" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F308" t="n">
-        <v>891.3043</v>
-      </c>
-      <c r="G308" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C309" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D309" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E309" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F309" t="n">
-        <v>129991.8257</v>
-      </c>
-      <c r="G309" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="C310" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D310" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="E310" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F310" t="n">
-        <v>221366.8554</v>
-      </c>
-      <c r="G310" t="n">
-        <v>11047465.5649081</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11100,11 +10740,13 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J311" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11139,11 +10781,13 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J312" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11178,11 +10822,13 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J313" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11217,11 +10863,13 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J314" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11256,11 +10904,13 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J315" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11295,11 +10945,13 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J316" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11334,11 +10986,13 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J317" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11373,11 +11027,13 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J318" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11412,11 +11068,13 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J319" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11451,11 +11109,13 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J320" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11490,11 +11150,13 @@
         <v>12080679.8663081</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J321" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11529,11 +11191,13 @@
         <v>12038964.7630081</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>1.89</v>
+      </c>
       <c r="J322" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11568,11 +11232,13 @@
         <v>12038964.7630081</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J323" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11607,11 +11273,13 @@
         <v>12038964.7630081</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J324" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11646,11 +11314,13 @@
         <v>12076590.4315081</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>1.886</v>
+      </c>
       <c r="J325" t="n">
-        <v>1.902</v>
+        <v>1.89</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11663,6 +11333,6 @@
       <c r="M325" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest HYC.xlsx
+++ b/BackTest/2020-01-14 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,10 +979,14 @@
         <v>675599.9646000003</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.91</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1012,11 +1016,19 @@
         <v>482612.2407000003</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1057,19 @@
         <v>482612.2407000003</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,10 +1098,14 @@
         <v>482612.2407000003</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.911</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1111,11 +1135,19 @@
         <v>500491.0096000003</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1176,19 @@
         <v>500491.0096000003</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1441,7 +1481,7 @@
         <v>5594357.155599999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1514,7 @@
         <v>5552719.377099999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1547,7 @@
         <v>5674929.238499999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1580,7 @@
         <v>5662415.653899999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1613,7 @@
         <v>5782579.318399999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1646,7 @@
         <v>5649902.0693</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1679,7 @@
         <v>5649902.0693</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2761,7 +2801,7 @@
         <v>5326307.925392443</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3256,10 +3296,14 @@
         <v>6209507.035192443</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.924</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3289,11 +3333,19 @@
         <v>5881748.605092444</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3374,19 @@
         <v>5882006.605092444</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,10 +3415,14 @@
         <v>6451625.129392443</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.928</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3391,8 +3455,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3494,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,10 +3530,14 @@
         <v>5832235.129392443</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.94</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3490,8 +3570,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3609,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3586,10 +3678,14 @@
         <v>5059248.399492443</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.923</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
@@ -3619,11 +3715,19 @@
         <v>5061427.172692442</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3756,19 @@
         <v>5061427.172692442</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,10 +3797,14 @@
         <v>5062747.172692442</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.925</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
@@ -3721,8 +3837,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3876,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3915,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +3954,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3993,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4032,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4071,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4110,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4149,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4188,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4227,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4266,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4305,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4344,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4383,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4422,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4461,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4500,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4539,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4578,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4617,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4656,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4695,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4734,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4773,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4812,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4851,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4890,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4929,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4968,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5007,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5046,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5085,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5124,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5163,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5202,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5241,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5280,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5319,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5358,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5397,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5436,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5475,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5514,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5553,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5592,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5631,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5670,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5709,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5748,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5787,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5826,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5862,17 @@
         <v>20132144.2718</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5901,17 @@
         <v>19919533.4543</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5940,17 @@
         <v>19956796.70300001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5979,17 @@
         <v>19858882.60750001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +6018,17 @@
         <v>17157499.63550001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +6057,17 @@
         <v>17228322.77210001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +6096,17 @@
         <v>16925952.1233</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +6135,17 @@
         <v>16399641.3944</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +6174,17 @@
         <v>16362967.8144</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6213,17 @@
         <v>15364311.8883</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,10 +6255,16 @@
         <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L163" t="n">
-        <v>1</v>
+        <v>0.9996753246753246</v>
       </c>
       <c r="M163" t="inlineStr"/>
     </row>
@@ -5863,7 +6357,7 @@
         <v>15282433.8701</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5929,7 +6423,7 @@
         <v>15229509.6178</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6028,7 +6522,7 @@
         <v>15052330.7924</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6193,7 +6687,7 @@
         <v>15022441.3589996</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6720,7 @@
         <v>14913457.6190996</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6753,7 @@
         <v>14913701.6190996</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6325,7 +6819,7 @@
         <v>14873071.1858996</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6852,7 @@
         <v>14844205.3729996</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6885,7 @@
         <v>14115761.1297996</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6918,7 @@
         <v>14115761.1297996</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6951,7 @@
         <v>14126565.3204996</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6984,7 @@
         <v>13105689.6138996</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +7017,7 @@
         <v>13153258.1452996</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +7050,7 @@
         <v>13132143.0694996</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +7083,7 @@
         <v>13093379.8738996</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +7116,7 @@
         <v>13093636.8738996</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +7149,7 @@
         <v>12850478.1958996</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +7182,7 @@
         <v>12851519.1556996</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +7215,7 @@
         <v>12365159.9034996</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +7248,7 @@
         <v>11774633.9498996</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +7281,7 @@
         <v>9954109.927899599</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +7314,7 @@
         <v>9954109.927899599</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -9955,14 +10449,10 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J290" t="n">
-        <v>1.893</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
@@ -9992,19 +10482,11 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J291" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10036,14 +10518,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10105,14 +10581,10 @@
         <v>11373832.4203081</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="J294" t="n">
-        <v>1.893</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
@@ -10145,14 +10617,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10184,14 +10650,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>1.893</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10385,14 +10845,10 @@
         <v>11268832.4203081</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J302" t="n">
-        <v>1.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
@@ -10425,785 +10881,715 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
         <v>1.89</v>
       </c>
-      <c r="K303" t="inlineStr">
+      <c r="C304" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F304" t="n">
+        <v>21181.6188</v>
+      </c>
+      <c r="G304" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F305" t="n">
+        <v>65000</v>
+      </c>
+      <c r="G305" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F306" t="n">
+        <v>15977.8076</v>
+      </c>
+      <c r="G306" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F307" t="n">
+        <v>101410.5827</v>
+      </c>
+      <c r="G307" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F308" t="n">
+        <v>891.3043</v>
+      </c>
+      <c r="G308" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F309" t="n">
+        <v>129991.8257</v>
+      </c>
+      <c r="G309" t="n">
+        <v>11268832.4203081</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F310" t="n">
+        <v>221366.8554</v>
+      </c>
+      <c r="G310" t="n">
+        <v>11047465.5649081</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E311" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F311" t="n">
+        <v>186572.3595</v>
+      </c>
+      <c r="G311" t="n">
+        <v>11047465.5649081</v>
+      </c>
+      <c r="H311" t="n">
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="J311" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F312" t="n">
+        <v>100252.4643</v>
+      </c>
+      <c r="G312" t="n">
+        <v>11047465.5649081</v>
+      </c>
+      <c r="H312" t="n">
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="J312" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K312" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C304" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D304" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E304" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F304" t="n">
-        <v>21181.6188</v>
-      </c>
-      <c r="G304" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J304" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K304" t="inlineStr">
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F313" t="n">
+        <v>79559.8444</v>
+      </c>
+      <c r="G313" t="n">
+        <v>11047465.5649081</v>
+      </c>
+      <c r="H313" t="n">
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K313" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C305" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D305" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E305" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F305" t="n">
-        <v>65000</v>
-      </c>
-      <c r="G305" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J305" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C306" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D306" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E306" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F306" t="n">
-        <v>15977.8076</v>
-      </c>
-      <c r="G306" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J306" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K306" t="inlineStr">
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F314" t="n">
+        <v>22449.2411</v>
+      </c>
+      <c r="G314" t="n">
+        <v>11047465.5649081</v>
+      </c>
+      <c r="H314" t="n">
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="J314" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F315" t="n">
+        <v>17093.6688</v>
+      </c>
+      <c r="G315" t="n">
+        <v>11047465.5649081</v>
+      </c>
+      <c r="H315" t="n">
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K315" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C307" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D307" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E307" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F307" t="n">
-        <v>101410.5827</v>
-      </c>
-      <c r="G307" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J307" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K307" t="inlineStr">
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F316" t="n">
+        <v>22010.8815</v>
+      </c>
+      <c r="G316" t="n">
+        <v>11047465.5649081</v>
+      </c>
+      <c r="H316" t="n">
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K316" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C308" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D308" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E308" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F308" t="n">
-        <v>891.3043</v>
-      </c>
-      <c r="G308" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J308" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C309" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D309" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E309" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F309" t="n">
-        <v>129991.8257</v>
-      </c>
-      <c r="G309" t="n">
-        <v>11268832.4203081</v>
-      </c>
-      <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J309" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K309" t="inlineStr">
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F317" t="n">
+        <v>84057.73</v>
+      </c>
+      <c r="G317" t="n">
+        <v>11047465.5649081</v>
+      </c>
+      <c r="H317" t="n">
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="J317" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F318" t="n">
+        <v>44932.6</v>
+      </c>
+      <c r="G318" t="n">
+        <v>11047465.5649081</v>
+      </c>
+      <c r="H318" t="n">
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="J318" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K318" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="C310" t="n">
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
         <v>1.886</v>
       </c>
-      <c r="D310" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="E310" t="n">
+      <c r="C319" t="n">
         <v>1.886</v>
       </c>
-      <c r="F310" t="n">
-        <v>221366.8554</v>
-      </c>
-      <c r="G310" t="n">
+      <c r="D319" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F319" t="n">
+        <v>44932.6</v>
+      </c>
+      <c r="G319" t="n">
         <v>11047465.5649081</v>
       </c>
-      <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
+      <c r="H319" t="n">
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="J319" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F320" t="n">
+        <v>16467.6573</v>
+      </c>
+      <c r="G320" t="n">
+        <v>11047465.5649081</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="J320" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
         <v>1.89</v>
       </c>
-      <c r="J310" t="n">
+      <c r="C321" t="n">
         <v>1.89</v>
       </c>
-      <c r="K310" t="inlineStr">
+      <c r="D321" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1033214.3014</v>
+      </c>
+      <c r="G321" t="n">
+        <v>12080679.8663081</v>
+      </c>
+      <c r="H321" t="n">
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="F322" t="n">
+        <v>41715.1033</v>
+      </c>
+      <c r="G322" t="n">
+        <v>12038964.7630081</v>
+      </c>
+      <c r="H322" t="n">
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J322" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K322" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C311" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D311" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="E311" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F311" t="n">
-        <v>186572.3595</v>
-      </c>
-      <c r="G311" t="n">
-        <v>11047465.5649081</v>
-      </c>
-      <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J311" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C312" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D312" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="E312" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F312" t="n">
-        <v>100252.4643</v>
-      </c>
-      <c r="G312" t="n">
-        <v>11047465.5649081</v>
-      </c>
-      <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J312" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C313" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D313" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="E313" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F313" t="n">
-        <v>79559.8444</v>
-      </c>
-      <c r="G313" t="n">
-        <v>11047465.5649081</v>
-      </c>
-      <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J313" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C314" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D314" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="E314" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F314" t="n">
-        <v>22449.2411</v>
-      </c>
-      <c r="G314" t="n">
-        <v>11047465.5649081</v>
-      </c>
-      <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J314" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C315" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D315" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="E315" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F315" t="n">
-        <v>17093.6688</v>
-      </c>
-      <c r="G315" t="n">
-        <v>11047465.5649081</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J315" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C316" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D316" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="E316" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F316" t="n">
-        <v>22010.8815</v>
-      </c>
-      <c r="G316" t="n">
-        <v>11047465.5649081</v>
-      </c>
-      <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J316" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C317" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D317" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="E317" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F317" t="n">
-        <v>84057.73</v>
-      </c>
-      <c r="G317" t="n">
-        <v>11047465.5649081</v>
-      </c>
-      <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J317" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C318" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D318" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="E318" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F318" t="n">
-        <v>44932.6</v>
-      </c>
-      <c r="G318" t="n">
-        <v>11047465.5649081</v>
-      </c>
-      <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J318" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C319" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D319" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="E319" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F319" t="n">
-        <v>44932.6</v>
-      </c>
-      <c r="G319" t="n">
-        <v>11047465.5649081</v>
-      </c>
-      <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J319" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C320" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D320" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="E320" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F320" t="n">
-        <v>16467.6573</v>
-      </c>
-      <c r="G320" t="n">
-        <v>11047465.5649081</v>
-      </c>
-      <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J320" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C321" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D321" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E321" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F321" t="n">
-        <v>1033214.3014</v>
-      </c>
-      <c r="G321" t="n">
-        <v>12080679.8663081</v>
-      </c>
-      <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J321" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C322" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D322" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E322" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F322" t="n">
-        <v>41715.1033</v>
-      </c>
-      <c r="G322" t="n">
-        <v>12038964.7630081</v>
-      </c>
-      <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J322" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11238,7 +11624,7 @@
         <v>1.886</v>
       </c>
       <c r="J323" t="n">
-        <v>1.89</v>
+        <v>1.886</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11279,7 +11665,7 @@
         <v>1.886</v>
       </c>
       <c r="J324" t="n">
-        <v>1.89</v>
+        <v>1.886</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11320,7 +11706,7 @@
         <v>1.886</v>
       </c>
       <c r="J325" t="n">
-        <v>1.89</v>
+        <v>1.886</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11333,6 +11719,6 @@
       <c r="M325" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest HYC.xlsx
+++ b/BackTest/2020-01-14 BackTest HYC.xlsx
@@ -451,7 +451,7 @@
         <v>1769013.3843</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>1761417.3929</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.957</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.957</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>1780684.6782</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.957</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>1780684.6782</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.957</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>1761464.7478</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.947</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>1787515.1187</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.937</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>1641788.653</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>1681816.9161</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,19 @@
         <v>1681816.9161</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.956</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,19 @@
         <v>1568533.6111</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.956</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +845,19 @@
         <v>1568533.6111</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.934</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +886,19 @@
         <v>1462375.7358</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.934</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +927,19 @@
         <v>964879.8481000003</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.933</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +968,19 @@
         <v>964879.8481000003</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1009,19 @@
         <v>875150.1840000004</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1050,19 @@
         <v>675099.9646000003</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -985,9 +1097,13 @@
         <v>1.91</v>
       </c>
       <c r="J18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+        <v>1.947</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1022,11 +1138,11 @@
         <v>1.93</v>
       </c>
       <c r="J19" t="n">
-        <v>1.91</v>
+        <v>1.947</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1063,11 +1179,11 @@
         <v>1.911</v>
       </c>
       <c r="J20" t="n">
-        <v>1.91</v>
+        <v>1.947</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1104,9 +1220,13 @@
         <v>1.911</v>
       </c>
       <c r="J21" t="n">
-        <v>1.911</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>1.947</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1141,11 +1261,11 @@
         <v>1.911</v>
       </c>
       <c r="J22" t="n">
-        <v>1.911</v>
+        <v>1.947</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1182,11 +1302,11 @@
         <v>1.929</v>
       </c>
       <c r="J23" t="n">
-        <v>1.911</v>
+        <v>1.947</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1217,11 +1337,19 @@
         <v>3966933.180800001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1253,8 +1381,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1286,8 +1420,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1319,8 +1459,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1352,8 +1498,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1385,8 +1537,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1418,8 +1576,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1451,8 +1615,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1481,11 +1651,17 @@
         <v>5594357.155599999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1514,11 +1690,17 @@
         <v>5552719.377099999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1547,11 +1729,17 @@
         <v>5674929.238499999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1580,11 +1768,17 @@
         <v>5662415.653899999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1613,11 +1807,17 @@
         <v>5782579.318399999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1646,11 +1846,17 @@
         <v>5649902.0693</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1679,11 +1885,17 @@
         <v>5649902.0693</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1715,8 +1927,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1748,8 +1966,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1781,8 +2005,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1814,8 +2044,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1847,8 +2083,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1880,8 +2122,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1913,8 +2161,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1946,8 +2200,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1979,8 +2239,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2012,8 +2278,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2045,8 +2317,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2078,8 +2356,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2111,8 +2395,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2144,8 +2434,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2177,8 +2473,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2210,8 +2512,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2243,8 +2551,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2276,8 +2590,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2309,8 +2629,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2342,8 +2668,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2375,8 +2707,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2408,8 +2746,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2441,8 +2785,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2474,8 +2824,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2507,8 +2863,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2540,8 +2902,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2573,8 +2941,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2606,8 +2980,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2639,8 +3019,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2672,8 +3058,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2705,8 +3097,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2738,8 +3136,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2771,8 +3175,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2801,11 +3211,17 @@
         <v>5326307.925392443</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2837,8 +3253,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2870,8 +3292,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2903,8 +3331,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2936,8 +3370,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2969,8 +3409,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3002,8 +3448,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3035,8 +3487,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3068,8 +3526,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3101,8 +3565,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3134,8 +3604,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3167,8 +3643,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3200,8 +3682,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3233,8 +3721,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3266,8 +3760,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3296,15 +3796,17 @@
         <v>6209507.035192443</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1.924</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>1.924</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>1.947</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3333,17 +3835,15 @@
         <v>5881748.605092444</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1.928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>1.924</v>
+        <v>1.947</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3374,17 +3874,15 @@
         <v>5882006.605092444</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1.924</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>1.924</v>
+        <v>1.947</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3415,15 +3913,17 @@
         <v>6451625.129392443</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1.928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>1.928</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+        <v>1.947</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3456,11 +3956,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>1.928</v>
+        <v>1.947</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3495,11 +3995,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>1.928</v>
+        <v>1.947</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3530,15 +4030,17 @@
         <v>5832235.129392443</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+        <v>1.947</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3571,11 +4073,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>1.94</v>
+        <v>1.947</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3610,11 +4112,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>1.94</v>
+        <v>1.947</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -3648,8 +4150,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3678,15 +4186,17 @@
         <v>5059248.399492443</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1.923</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>1.923</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
+        <v>1.947</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3715,17 +4225,15 @@
         <v>5061427.172692442</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1.924</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>1.923</v>
+        <v>1.947</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -3756,17 +4264,15 @@
         <v>5061427.172692442</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1.925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>1.923</v>
+        <v>1.947</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3797,15 +4303,17 @@
         <v>5062747.172692442</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1.925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+        <v>1.947</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3838,11 +4346,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3877,11 +4385,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -3916,7 +4424,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3955,7 +4463,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3994,7 +4502,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4033,7 +4541,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4072,7 +4580,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4111,7 +4619,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4150,7 +4658,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4189,7 +4697,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4228,7 +4736,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4267,7 +4775,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4306,7 +4814,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4345,7 +4853,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4384,7 +4892,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4423,7 +4931,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4462,7 +4970,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4501,7 +5009,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4540,7 +5048,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4579,7 +5087,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4618,7 +5126,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4657,7 +5165,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4696,7 +5204,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4735,7 +5243,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4774,7 +5282,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4813,7 +5321,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4852,7 +5360,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4891,7 +5399,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4930,7 +5438,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4969,7 +5477,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5008,7 +5516,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5047,7 +5555,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5086,7 +5594,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5125,7 +5633,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5164,7 +5672,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5203,7 +5711,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5242,7 +5750,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5281,7 +5789,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5320,7 +5828,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5359,7 +5867,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5398,7 +5906,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5433,21 +5941,23 @@
         <v>17189643.8938</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>1.925</v>
+        <v>1.947</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>1.05303800719055</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1.016095534787124</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5472,17 +5982,11 @@
         <v>12098080.7826</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5511,17 +6015,11 @@
         <v>16068028.6493</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5550,17 +6048,11 @@
         <v>15969371.8682</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5589,17 +6081,11 @@
         <v>15362002.7033</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5628,17 +6114,11 @@
         <v>15362246.6058</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5667,17 +6147,11 @@
         <v>14662987.658</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5706,17 +6180,11 @@
         <v>17348745.8962</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5745,17 +6213,11 @@
         <v>16813677.3901</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5784,17 +6246,11 @@
         <v>17422573.2339</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5823,17 +6279,11 @@
         <v>17481887.8067</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5862,17 +6312,11 @@
         <v>20132144.2718</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5901,17 +6345,11 @@
         <v>19919533.4543</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5940,17 +6378,11 @@
         <v>19956796.70300001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5979,17 +6411,11 @@
         <v>19858882.60750001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6018,17 +6444,11 @@
         <v>17157499.63550001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6060,14 +6480,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6099,14 +6513,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6138,14 +6546,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6177,14 +6579,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6216,14 +6612,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6252,19 +6642,13 @@
         <v>15364311.8883</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>0.9996753246753246</v>
+        <v>1</v>
       </c>
       <c r="M163" t="inlineStr"/>
     </row>
@@ -6291,7 +6675,7 @@
         <v>15427446.2085</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6324,7 +6708,7 @@
         <v>15411709.4328</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6357,7 +6741,7 @@
         <v>15282433.8701</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6390,7 +6774,7 @@
         <v>15228617.6178</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6423,7 +6807,7 @@
         <v>15229509.6178</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6456,7 +6840,7 @@
         <v>15100349.3726</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6489,7 +6873,7 @@
         <v>15126409.3726</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6522,7 +6906,7 @@
         <v>15052330.7924</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6555,7 +6939,7 @@
         <v>14780664.64280001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -11142,14 +11526,10 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J311" t="n">
-        <v>1.886</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
@@ -11179,19 +11559,11 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J312" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11220,19 +11592,11 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J313" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11261,14 +11625,10 @@
         <v>11047465.5649081</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="J314" t="n">
-        <v>1.886</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
@@ -11306,11 +11666,7 @@
       <c r="J315" t="n">
         <v>1.886</v>
       </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11388,7 +11744,11 @@
       <c r="J317" t="n">
         <v>1.886</v>
       </c>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11425,11 +11785,7 @@
       <c r="J318" t="n">
         <v>1.886</v>
       </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11507,7 +11863,11 @@
       <c r="J320" t="n">
         <v>1.886</v>
       </c>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11544,11 +11904,7 @@
       <c r="J321" t="n">
         <v>1.886</v>
       </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
